--- a/backend/app/scraper/data/cm_upload.xlsx
+++ b/backend/app/scraper/data/cm_upload.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <x:si>
-    <x:t>The Anvaya Beach Resorts Bali - Monday, May 26, 2025 7:57:21 AM</x:t>
+    <x:t>The Anvaya Beach Resorts Bali - Tuesday, July 8, 2025 2:51:44 PM</x:t>
   </x:si>
   <x:si>
     <x:t>Deluxe Room</x:t>
@@ -484,7 +484,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="65.710625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="63.710625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="26.710625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="12.710625" style="0" customWidth="1"/>
     <x:col min="4" max="104" width="10.710625" style="0" customWidth="1"/>
@@ -495,307 +495,307 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D1" s="2">
-        <x:v>45803</x:v>
+        <x:v>45846</x:v>
       </x:c>
       <x:c r="E1" s="2">
-        <x:v>45804</x:v>
+        <x:v>45847</x:v>
       </x:c>
       <x:c r="F1" s="2">
-        <x:v>45805</x:v>
+        <x:v>45848</x:v>
       </x:c>
       <x:c r="G1" s="2">
-        <x:v>45806</x:v>
+        <x:v>45849</x:v>
       </x:c>
       <x:c r="H1" s="2">
-        <x:v>45807</x:v>
+        <x:v>45850</x:v>
       </x:c>
       <x:c r="I1" s="2">
-        <x:v>45808</x:v>
+        <x:v>45851</x:v>
       </x:c>
       <x:c r="J1" s="2">
-        <x:v>45809</x:v>
+        <x:v>45852</x:v>
       </x:c>
       <x:c r="K1" s="2">
-        <x:v>45810</x:v>
+        <x:v>45853</x:v>
       </x:c>
       <x:c r="L1" s="2">
-        <x:v>45811</x:v>
+        <x:v>45854</x:v>
       </x:c>
       <x:c r="M1" s="2">
-        <x:v>45812</x:v>
+        <x:v>45855</x:v>
       </x:c>
       <x:c r="N1" s="2">
-        <x:v>45813</x:v>
+        <x:v>45856</x:v>
       </x:c>
       <x:c r="O1" s="2">
-        <x:v>45814</x:v>
+        <x:v>45857</x:v>
       </x:c>
       <x:c r="P1" s="2">
-        <x:v>45815</x:v>
+        <x:v>45858</x:v>
       </x:c>
       <x:c r="Q1" s="2">
-        <x:v>45816</x:v>
+        <x:v>45859</x:v>
       </x:c>
       <x:c r="R1" s="2">
-        <x:v>45817</x:v>
+        <x:v>45860</x:v>
       </x:c>
       <x:c r="S1" s="2">
-        <x:v>45818</x:v>
+        <x:v>45861</x:v>
       </x:c>
       <x:c r="T1" s="2">
-        <x:v>45819</x:v>
+        <x:v>45862</x:v>
       </x:c>
       <x:c r="U1" s="2">
-        <x:v>45820</x:v>
+        <x:v>45863</x:v>
       </x:c>
       <x:c r="V1" s="2">
-        <x:v>45821</x:v>
+        <x:v>45864</x:v>
       </x:c>
       <x:c r="W1" s="2">
-        <x:v>45822</x:v>
+        <x:v>45865</x:v>
       </x:c>
       <x:c r="X1" s="2">
-        <x:v>45823</x:v>
+        <x:v>45866</x:v>
       </x:c>
       <x:c r="Y1" s="2">
-        <x:v>45824</x:v>
+        <x:v>45867</x:v>
       </x:c>
       <x:c r="Z1" s="2">
-        <x:v>45825</x:v>
+        <x:v>45868</x:v>
       </x:c>
       <x:c r="AA1" s="2">
-        <x:v>45826</x:v>
+        <x:v>45869</x:v>
       </x:c>
       <x:c r="AB1" s="2">
-        <x:v>45827</x:v>
+        <x:v>45870</x:v>
       </x:c>
       <x:c r="AC1" s="2">
-        <x:v>45828</x:v>
+        <x:v>45871</x:v>
       </x:c>
       <x:c r="AD1" s="2">
-        <x:v>45829</x:v>
+        <x:v>45872</x:v>
       </x:c>
       <x:c r="AE1" s="2">
-        <x:v>45830</x:v>
+        <x:v>45873</x:v>
       </x:c>
       <x:c r="AF1" s="2">
-        <x:v>45831</x:v>
+        <x:v>45874</x:v>
       </x:c>
       <x:c r="AG1" s="2">
-        <x:v>45832</x:v>
+        <x:v>45875</x:v>
       </x:c>
       <x:c r="AH1" s="2">
-        <x:v>45833</x:v>
+        <x:v>45876</x:v>
       </x:c>
       <x:c r="AI1" s="2">
-        <x:v>45834</x:v>
+        <x:v>45877</x:v>
       </x:c>
       <x:c r="AJ1" s="2">
-        <x:v>45835</x:v>
+        <x:v>45878</x:v>
       </x:c>
       <x:c r="AK1" s="2">
-        <x:v>45836</x:v>
+        <x:v>45879</x:v>
       </x:c>
       <x:c r="AL1" s="2">
-        <x:v>45837</x:v>
+        <x:v>45880</x:v>
       </x:c>
       <x:c r="AM1" s="2">
-        <x:v>45838</x:v>
+        <x:v>45881</x:v>
       </x:c>
       <x:c r="AN1" s="2">
-        <x:v>45839</x:v>
+        <x:v>45882</x:v>
       </x:c>
       <x:c r="AO1" s="2">
-        <x:v>45840</x:v>
+        <x:v>45883</x:v>
       </x:c>
       <x:c r="AP1" s="2">
-        <x:v>45841</x:v>
+        <x:v>45884</x:v>
       </x:c>
       <x:c r="AQ1" s="2">
-        <x:v>45842</x:v>
+        <x:v>45885</x:v>
       </x:c>
       <x:c r="AR1" s="2">
-        <x:v>45843</x:v>
+        <x:v>45886</x:v>
       </x:c>
       <x:c r="AS1" s="2">
-        <x:v>45844</x:v>
+        <x:v>45887</x:v>
       </x:c>
       <x:c r="AT1" s="2">
-        <x:v>45845</x:v>
+        <x:v>45888</x:v>
       </x:c>
       <x:c r="AU1" s="2">
-        <x:v>45846</x:v>
+        <x:v>45889</x:v>
       </x:c>
       <x:c r="AV1" s="2">
-        <x:v>45847</x:v>
+        <x:v>45890</x:v>
       </x:c>
       <x:c r="AW1" s="2">
-        <x:v>45848</x:v>
+        <x:v>45891</x:v>
       </x:c>
       <x:c r="AX1" s="2">
-        <x:v>45849</x:v>
+        <x:v>45892</x:v>
       </x:c>
       <x:c r="AY1" s="2">
-        <x:v>45850</x:v>
+        <x:v>45893</x:v>
       </x:c>
       <x:c r="AZ1" s="2">
-        <x:v>45851</x:v>
+        <x:v>45894</x:v>
       </x:c>
       <x:c r="BA1" s="2">
-        <x:v>45852</x:v>
+        <x:v>45895</x:v>
       </x:c>
       <x:c r="BB1" s="2">
-        <x:v>45853</x:v>
+        <x:v>45896</x:v>
       </x:c>
       <x:c r="BC1" s="2">
-        <x:v>45854</x:v>
+        <x:v>45897</x:v>
       </x:c>
       <x:c r="BD1" s="2">
-        <x:v>45855</x:v>
+        <x:v>45898</x:v>
       </x:c>
       <x:c r="BE1" s="2">
-        <x:v>45856</x:v>
+        <x:v>45899</x:v>
       </x:c>
       <x:c r="BF1" s="2">
-        <x:v>45857</x:v>
+        <x:v>45900</x:v>
       </x:c>
       <x:c r="BG1" s="2">
-        <x:v>45858</x:v>
+        <x:v>45901</x:v>
       </x:c>
       <x:c r="BH1" s="2">
-        <x:v>45859</x:v>
+        <x:v>45902</x:v>
       </x:c>
       <x:c r="BI1" s="2">
-        <x:v>45860</x:v>
+        <x:v>45903</x:v>
       </x:c>
       <x:c r="BJ1" s="2">
-        <x:v>45861</x:v>
+        <x:v>45904</x:v>
       </x:c>
       <x:c r="BK1" s="2">
-        <x:v>45862</x:v>
+        <x:v>45905</x:v>
       </x:c>
       <x:c r="BL1" s="2">
-        <x:v>45863</x:v>
+        <x:v>45906</x:v>
       </x:c>
       <x:c r="BM1" s="2">
-        <x:v>45864</x:v>
+        <x:v>45907</x:v>
       </x:c>
       <x:c r="BN1" s="2">
-        <x:v>45865</x:v>
+        <x:v>45908</x:v>
       </x:c>
       <x:c r="BO1" s="2">
-        <x:v>45866</x:v>
+        <x:v>45909</x:v>
       </x:c>
       <x:c r="BP1" s="2">
-        <x:v>45867</x:v>
+        <x:v>45910</x:v>
       </x:c>
       <x:c r="BQ1" s="2">
-        <x:v>45868</x:v>
+        <x:v>45911</x:v>
       </x:c>
       <x:c r="BR1" s="2">
-        <x:v>45869</x:v>
+        <x:v>45912</x:v>
       </x:c>
       <x:c r="BS1" s="2">
-        <x:v>45870</x:v>
+        <x:v>45913</x:v>
       </x:c>
       <x:c r="BT1" s="2">
-        <x:v>45871</x:v>
+        <x:v>45914</x:v>
       </x:c>
       <x:c r="BU1" s="2">
-        <x:v>45872</x:v>
+        <x:v>45915</x:v>
       </x:c>
       <x:c r="BV1" s="2">
-        <x:v>45873</x:v>
+        <x:v>45916</x:v>
       </x:c>
       <x:c r="BW1" s="2">
-        <x:v>45874</x:v>
+        <x:v>45917</x:v>
       </x:c>
       <x:c r="BX1" s="2">
-        <x:v>45875</x:v>
+        <x:v>45918</x:v>
       </x:c>
       <x:c r="BY1" s="2">
-        <x:v>45876</x:v>
+        <x:v>45919</x:v>
       </x:c>
       <x:c r="BZ1" s="2">
-        <x:v>45877</x:v>
+        <x:v>45920</x:v>
       </x:c>
       <x:c r="CA1" s="2">
-        <x:v>45878</x:v>
+        <x:v>45921</x:v>
       </x:c>
       <x:c r="CB1" s="2">
-        <x:v>45879</x:v>
+        <x:v>45922</x:v>
       </x:c>
       <x:c r="CC1" s="2">
-        <x:v>45880</x:v>
+        <x:v>45923</x:v>
       </x:c>
       <x:c r="CD1" s="2">
-        <x:v>45881</x:v>
+        <x:v>45924</x:v>
       </x:c>
       <x:c r="CE1" s="2">
-        <x:v>45882</x:v>
+        <x:v>45925</x:v>
       </x:c>
       <x:c r="CF1" s="2">
-        <x:v>45883</x:v>
+        <x:v>45926</x:v>
       </x:c>
       <x:c r="CG1" s="2">
-        <x:v>45884</x:v>
+        <x:v>45927</x:v>
       </x:c>
       <x:c r="CH1" s="2">
-        <x:v>45885</x:v>
+        <x:v>45928</x:v>
       </x:c>
       <x:c r="CI1" s="2">
-        <x:v>45886</x:v>
+        <x:v>45929</x:v>
       </x:c>
       <x:c r="CJ1" s="2">
-        <x:v>45887</x:v>
+        <x:v>45930</x:v>
       </x:c>
       <x:c r="CK1" s="2">
-        <x:v>45888</x:v>
+        <x:v>45931</x:v>
       </x:c>
       <x:c r="CL1" s="2">
-        <x:v>45889</x:v>
+        <x:v>45932</x:v>
       </x:c>
       <x:c r="CM1" s="2">
-        <x:v>45890</x:v>
+        <x:v>45933</x:v>
       </x:c>
       <x:c r="CN1" s="2">
-        <x:v>45891</x:v>
+        <x:v>45934</x:v>
       </x:c>
       <x:c r="CO1" s="2">
-        <x:v>45892</x:v>
+        <x:v>45935</x:v>
       </x:c>
       <x:c r="CP1" s="2">
-        <x:v>45893</x:v>
+        <x:v>45936</x:v>
       </x:c>
       <x:c r="CQ1" s="2">
-        <x:v>45894</x:v>
+        <x:v>45937</x:v>
       </x:c>
       <x:c r="CR1" s="2">
-        <x:v>45895</x:v>
+        <x:v>45938</x:v>
       </x:c>
       <x:c r="CS1" s="2">
-        <x:v>45896</x:v>
+        <x:v>45939</x:v>
       </x:c>
       <x:c r="CT1" s="2">
-        <x:v>45897</x:v>
+        <x:v>45940</x:v>
       </x:c>
       <x:c r="CU1" s="2">
-        <x:v>45898</x:v>
+        <x:v>45941</x:v>
       </x:c>
       <x:c r="CV1" s="2">
-        <x:v>45899</x:v>
+        <x:v>45942</x:v>
       </x:c>
       <x:c r="CW1" s="2">
-        <x:v>45900</x:v>
+        <x:v>45943</x:v>
       </x:c>
       <x:c r="CX1" s="2">
-        <x:v>45901</x:v>
+        <x:v>45944</x:v>
       </x:c>
       <x:c r="CY1" s="2">
-        <x:v>45902</x:v>
+        <x:v>45945</x:v>
       </x:c>
       <x:c r="CZ1" s="2">
-        <x:v>45903</x:v>
+        <x:v>45946</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:104">
@@ -806,307 +806,307 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D2" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E2" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F2" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G2" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H2" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I2" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J2" s="3" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="K2" s="3" t="n">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="E2" s="3" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="F2" s="3" t="n">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G2" s="3" t="n">
+      <x:c r="L2" s="3" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="M2" s="3" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="N2" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H2" s="3" t="n">
+      <x:c r="O2" s="3" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="P2" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I2" s="3" t="n">
+      <x:c r="Q2" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R2" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J2" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K2" s="3" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L2" s="3" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="M2" s="3" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="N2" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O2" s="3" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="P2" s="3" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="Q2" s="3" t="n">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="R2" s="3" t="n">
-        <x:v>13</x:v>
-      </x:c>
       <x:c r="S2" s="3" t="n">
-        <x:v>14</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="T2" s="3" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="U2" s="3" t="n">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="V2" s="3" t="n">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="U2" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="V2" s="3" t="s">
+        <x:v>3</x:v>
       </x:c>
       <x:c r="W2" s="3" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="X2" s="3" t="s">
-        <x:v>3</x:v>
+      <x:c r="X2" s="3" t="n">
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Y2" s="3" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="Z2" s="3" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="AA2" s="3" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="AB2" s="3" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="AC2" s="3" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="AD2" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="AE2" s="3" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="AF2" s="3" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="AG2" s="3" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="AH2" s="3" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="AI2" s="3" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="AJ2" s="3" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="AK2" s="3" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="AL2" s="3" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="AM2" s="3" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="AN2" s="3" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="AO2" s="3" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="AP2" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ2" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR2" s="3" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="AS2" s="3" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="AT2" s="3" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="AU2" s="3" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="AV2" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW2" s="3" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="AX2" s="3" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="AY2" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AZ2" s="3" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="BA2" s="3" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="BB2" s="3" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="BC2" s="3" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="BD2" s="3" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="BE2" s="3" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="BF2" s="3" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="BG2" s="3" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="BH2" s="3" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="BI2" s="3" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="BJ2" s="3" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="BK2" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="BL2" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="BM2" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="BN2" s="3" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="BO2" s="3" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="BP2" s="3" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="BQ2" s="3" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="BR2" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="BS2" s="3" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="BT2" s="3" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="BU2" s="3" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="BV2" s="3" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="BW2" s="3" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="BX2" s="3" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="BY2" s="3" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="BZ2" s="3" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="CA2" s="3" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="CB2" s="3" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="CC2" s="3" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="CD2" s="3" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="Z2" s="3" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="AA2" s="3" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="AB2" s="3" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="AC2" s="3" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="AD2" s="3" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="AE2" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF2" s="3" t="n">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="AG2" s="3" t="n">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="AH2" s="3" t="n">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="AI2" s="3" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="AJ2" s="3" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="AK2" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL2" s="3" t="n">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="AM2" s="3" t="n">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="AN2" s="3" t="n">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="AO2" s="3" t="n">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="AP2" s="3" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="AQ2" s="3" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="AR2" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS2" s="3" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="AT2" s="3" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="AU2" s="3" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AV2" s="3" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AW2" s="3" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AX2" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY2" s="3" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="AZ2" s="3" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="BA2" s="3" t="n">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="BB2" s="3" t="n">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="BC2" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BD2" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BE2" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BF2" s="3" t="n">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="BG2" s="3" t="n">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="BH2" s="3" t="n">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="BI2" s="3" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="BJ2" s="3" t="n">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="BK2" s="3" t="n">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="BL2" s="3" t="n">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="BM2" s="3" t="n">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="BN2" s="3" t="n">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="BO2" s="3" t="n">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="BP2" s="3" t="n">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="BQ2" s="3" t="n">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="BR2" s="3" t="n">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="BS2" s="3" t="n">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="BT2" s="3" t="n">
+      <x:c r="CE2" s="3" t="n">
         <x:v>29</x:v>
-      </x:c>
-      <x:c r="BU2" s="3" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="BV2" s="3" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="BW2" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BX2" s="3" t="n">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="BY2" s="3" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BZ2" s="3" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="CA2" s="3" t="n">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="CB2" s="3" t="n">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="CC2" s="3" t="n">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="CD2" s="3" t="n">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="CE2" s="3" t="n">
-        <x:v>18</x:v>
       </x:c>
       <x:c r="CF2" s="3" t="n">
         <x:v>25</x:v>
       </x:c>
       <x:c r="CG2" s="3" t="n">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="CH2" s="3" t="n">
-        <x:v>22</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="CI2" s="3" t="n">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="CJ2" s="3" t="n">
-        <x:v>26</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="CK2" s="3" t="n">
-        <x:v>29</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="CL2" s="3" t="n">
-        <x:v>26</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="CM2" s="3" t="n">
-        <x:v>24</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="CN2" s="3" t="n">
-        <x:v>24</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="CO2" s="3" t="n">
-        <x:v>24</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="CP2" s="3" t="n">
-        <x:v>27</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="CQ2" s="3" t="n">
-        <x:v>29</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="CR2" s="3" t="n">
-        <x:v>26</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="CS2" s="3" t="n">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="CT2" s="3" t="n">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="CU2" s="3" t="n">
-        <x:v>27</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="CV2" s="3" t="n">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="CW2" s="3" t="n">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="CX2" s="3" t="n">
-        <x:v>21</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="CY2" s="3" t="n">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="CZ2" s="3" t="n">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:104">
@@ -1120,73 +1120,73 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D3" s="5" t="n">
-        <x:v>2639000</x:v>
+        <x:v>3393000</x:v>
       </x:c>
       <x:c r="E3" s="5" t="n">
-        <x:v>2262000</x:v>
+        <x:v>3393000</x:v>
       </x:c>
       <x:c r="F3" s="5" t="n">
-        <x:v>2450500</x:v>
+        <x:v>3393000</x:v>
       </x:c>
       <x:c r="G3" s="5" t="n">
-        <x:v>2639000</x:v>
+        <x:v>3393000</x:v>
       </x:c>
       <x:c r="H3" s="5" t="n">
-        <x:v>2639000</x:v>
+        <x:v>3393000</x:v>
       </x:c>
       <x:c r="I3" s="5" t="n">
-        <x:v>2262000</x:v>
+        <x:v>3393000</x:v>
       </x:c>
       <x:c r="J3" s="5" t="n">
-        <x:v>2639000</x:v>
+        <x:v>2827500</x:v>
       </x:c>
       <x:c r="K3" s="5" t="n">
-        <x:v>2639000</x:v>
+        <x:v>2827500</x:v>
       </x:c>
       <x:c r="L3" s="5" t="n">
-        <x:v>2639000</x:v>
+        <x:v>2827500</x:v>
       </x:c>
       <x:c r="M3" s="5" t="n">
-        <x:v>2639000</x:v>
+        <x:v>2827500</x:v>
       </x:c>
       <x:c r="N3" s="5" t="n">
+        <x:v>2827500</x:v>
+      </x:c>
+      <x:c r="O3" s="5" t="n">
+        <x:v>2827500</x:v>
+      </x:c>
+      <x:c r="P3" s="5" t="n">
+        <x:v>2827500</x:v>
+      </x:c>
+      <x:c r="Q3" s="5" t="n">
+        <x:v>2827500</x:v>
+      </x:c>
+      <x:c r="R3" s="5" t="n">
+        <x:v>2827500</x:v>
+      </x:c>
+      <x:c r="S3" s="5" t="n">
+        <x:v>2827500</x:v>
+      </x:c>
+      <x:c r="T3" s="5" t="n">
+        <x:v>2827500</x:v>
+      </x:c>
+      <x:c r="U3" s="5" t="n">
+        <x:v>3393000</x:v>
+      </x:c>
+      <x:c r="V3" s="5" t="n">
         <x:v>3204500</x:v>
       </x:c>
-      <x:c r="O3" s="5" t="n">
-        <x:v>3204500</x:v>
-      </x:c>
-      <x:c r="P3" s="5" t="n">
-        <x:v>3204500</x:v>
-      </x:c>
-      <x:c r="Q3" s="5" t="n">
-        <x:v>2639000</x:v>
-      </x:c>
-      <x:c r="R3" s="5" t="n">
-        <x:v>3204500</x:v>
-      </x:c>
-      <x:c r="S3" s="5" t="n">
-        <x:v>3204500</x:v>
-      </x:c>
-      <x:c r="T3" s="5" t="n">
-        <x:v>3204500</x:v>
-      </x:c>
-      <x:c r="U3" s="5" t="n">
-        <x:v>2639000</x:v>
-      </x:c>
-      <x:c r="V3" s="5" t="n">
-        <x:v>2639000</x:v>
-      </x:c>
       <x:c r="W3" s="5" t="n">
-        <x:v>2639000</x:v>
+        <x:v>2827500</x:v>
       </x:c>
       <x:c r="X3" s="5" t="n">
         <x:v>2827500</x:v>
       </x:c>
       <x:c r="Y3" s="5" t="n">
-        <x:v>3204500</x:v>
+        <x:v>2827500</x:v>
       </x:c>
       <x:c r="Z3" s="5" t="n">
-        <x:v>3204500</x:v>
+        <x:v>2827500</x:v>
       </x:c>
       <x:c r="AA3" s="5" t="n">
         <x:v>3204500</x:v>
@@ -1198,34 +1198,34 @@
         <x:v>3204500</x:v>
       </x:c>
       <x:c r="AD3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>3204500</x:v>
       </x:c>
       <x:c r="AE3" s="5" t="n">
         <x:v>3204500</x:v>
       </x:c>
       <x:c r="AF3" s="5" t="n">
-        <x:v>2639000</x:v>
+        <x:v>3204500</x:v>
       </x:c>
       <x:c r="AG3" s="5" t="n">
-        <x:v>2639000</x:v>
+        <x:v>3204500</x:v>
       </x:c>
       <x:c r="AH3" s="5" t="n">
-        <x:v>2639000</x:v>
+        <x:v>3204500</x:v>
       </x:c>
       <x:c r="AI3" s="5" t="n">
-        <x:v>2639000</x:v>
+        <x:v>3204500</x:v>
       </x:c>
       <x:c r="AJ3" s="5" t="n">
-        <x:v>2639000</x:v>
+        <x:v>2827500</x:v>
       </x:c>
       <x:c r="AK3" s="5" t="n">
-        <x:v>2639000</x:v>
+        <x:v>2827500</x:v>
       </x:c>
       <x:c r="AL3" s="5" t="n">
-        <x:v>2639000</x:v>
+        <x:v>2827500</x:v>
       </x:c>
       <x:c r="AM3" s="5" t="n">
-        <x:v>2639000</x:v>
+        <x:v>2827500</x:v>
       </x:c>
       <x:c r="AN3" s="5" t="n">
         <x:v>2827500</x:v>
@@ -1249,22 +1249,22 @@
         <x:v>2827500</x:v>
       </x:c>
       <x:c r="AU3" s="5" t="n">
-        <x:v>3393000</x:v>
+        <x:v>3204500</x:v>
       </x:c>
       <x:c r="AV3" s="5" t="n">
-        <x:v>3393000</x:v>
+        <x:v>3204500</x:v>
       </x:c>
       <x:c r="AW3" s="5" t="n">
-        <x:v>3393000</x:v>
+        <x:v>2827500</x:v>
       </x:c>
       <x:c r="AX3" s="5" t="n">
-        <x:v>3393000</x:v>
+        <x:v>2827500</x:v>
       </x:c>
       <x:c r="AY3" s="5" t="n">
-        <x:v>3393000</x:v>
+        <x:v>2827500</x:v>
       </x:c>
       <x:c r="AZ3" s="5" t="n">
-        <x:v>3393000</x:v>
+        <x:v>2827500</x:v>
       </x:c>
       <x:c r="BA3" s="5" t="n">
         <x:v>2827500</x:v>
@@ -1285,142 +1285,142 @@
         <x:v>2827500</x:v>
       </x:c>
       <x:c r="BG3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2639000</x:v>
       </x:c>
       <x:c r="BH3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2639000</x:v>
       </x:c>
       <x:c r="BI3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2639000</x:v>
       </x:c>
       <x:c r="BJ3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2639000</x:v>
       </x:c>
       <x:c r="BK3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>3204500</x:v>
       </x:c>
       <x:c r="BL3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>3204500</x:v>
       </x:c>
       <x:c r="BM3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>3204500</x:v>
       </x:c>
       <x:c r="BN3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2639000</x:v>
       </x:c>
       <x:c r="BO3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2639000</x:v>
       </x:c>
       <x:c r="BP3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2639000</x:v>
       </x:c>
       <x:c r="BQ3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2639000</x:v>
       </x:c>
       <x:c r="BR3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>3204500</x:v>
       </x:c>
       <x:c r="BS3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2639000</x:v>
       </x:c>
       <x:c r="BT3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2639000</x:v>
       </x:c>
       <x:c r="BU3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2639000</x:v>
       </x:c>
       <x:c r="BV3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2639000</x:v>
       </x:c>
       <x:c r="BW3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2639000</x:v>
       </x:c>
       <x:c r="BX3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2639000</x:v>
       </x:c>
       <x:c r="BY3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2639000</x:v>
       </x:c>
       <x:c r="BZ3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2639000</x:v>
       </x:c>
       <x:c r="CA3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2639000</x:v>
       </x:c>
       <x:c r="CB3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2639000</x:v>
       </x:c>
       <x:c r="CC3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2639000</x:v>
       </x:c>
       <x:c r="CD3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2639000</x:v>
       </x:c>
       <x:c r="CE3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2639000</x:v>
       </x:c>
       <x:c r="CF3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2639000</x:v>
       </x:c>
       <x:c r="CG3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2639000</x:v>
       </x:c>
       <x:c r="CH3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2639000</x:v>
       </x:c>
       <x:c r="CI3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2639000</x:v>
       </x:c>
       <x:c r="CJ3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2639000</x:v>
       </x:c>
       <x:c r="CK3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2262000</x:v>
       </x:c>
       <x:c r="CL3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2262000</x:v>
       </x:c>
       <x:c r="CM3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2262000</x:v>
       </x:c>
       <x:c r="CN3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2262000</x:v>
       </x:c>
       <x:c r="CO3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2262000</x:v>
       </x:c>
       <x:c r="CP3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2262000</x:v>
       </x:c>
       <x:c r="CQ3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2262000</x:v>
       </x:c>
       <x:c r="CR3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2262000</x:v>
       </x:c>
       <x:c r="CS3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2262000</x:v>
       </x:c>
       <x:c r="CT3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2262000</x:v>
       </x:c>
       <x:c r="CU3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2262000</x:v>
       </x:c>
       <x:c r="CV3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2262000</x:v>
       </x:c>
       <x:c r="CW3" s="5" t="n">
-        <x:v>2827500</x:v>
+        <x:v>2262000</x:v>
       </x:c>
       <x:c r="CX3" s="5" t="n">
-        <x:v>2639000</x:v>
+        <x:v>2262000</x:v>
       </x:c>
       <x:c r="CY3" s="5" t="n">
-        <x:v>2639000</x:v>
+        <x:v>2262000</x:v>
       </x:c>
       <x:c r="CZ3" s="5" t="n">
-        <x:v>2639000</x:v>
+        <x:v>2262000</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:104">
@@ -1433,14 +1433,14 @@
       <x:c r="D5" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="n">
+      <x:c r="E5" s="3" t="n">
         <x:v>0</x:v>
+      </x:c>
+      <x:c r="F5" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G5" s="3" t="s">
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
         <x:v>3</x:v>
@@ -1448,11 +1448,11 @@
       <x:c r="I5" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J5" s="3" t="s">
-        <x:v>3</x:v>
+      <x:c r="J5" s="3" t="n">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K5" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L5" s="3" t="n">
         <x:v>0</x:v>
@@ -1467,49 +1467,49 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P5" s="3" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="Q5" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="Q5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="R5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="S5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="T5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="U5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="V5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="W5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="X5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="Y5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="Z5" s="3" t="n">
+      <x:c r="R5" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S5" s="3" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="T5" s="3" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="U5" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V5" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="AA5" s="3" t="s">
-        <x:v>3</x:v>
+      <x:c r="W5" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X5" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y5" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Z5" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="AA5" s="3" t="n">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AB5" s="3" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AC5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="AD5" s="3" t="s">
-        <x:v>3</x:v>
+      <x:c r="AC5" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD5" s="3" t="n">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AE5" s="3" t="n">
         <x:v>0</x:v>
@@ -1520,218 +1520,218 @@
       <x:c r="AG5" s="3" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AH5" s="3" t="n">
+      <x:c r="AH5" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="AI5" s="3" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="AJ5" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="AK5" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL5" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM5" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="AN5" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="AO5" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="AP5" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="AQ5" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="AI5" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="AK5" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL5" s="3" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="AM5" s="3" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="AN5" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="AP5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="AQ5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="AR5" s="3" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="AS5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="AT5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="AU5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="AV5" s="3" t="s">
+      <x:c r="AR5" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="AS5" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT5" s="3" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="AU5" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AV5" s="3" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="AW5" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AX5" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AY5" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ5" s="3" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="BA5" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB5" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC5" s="3" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="BD5" s="3" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="BE5" s="3" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="BF5" s="3" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="BG5" s="3" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="BH5" s="3" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="BI5" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ5" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="AZ5" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA5" s="3" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="BB5" s="3" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BC5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BD5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BE5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BF5" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG5" s="3" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BH5" s="3" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="BI5" s="3" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="BJ5" s="3" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="BK5" s="3" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="BL5" s="3" t="n">
+      <x:c r="BK5" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="BL5" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="BM5" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="BN5" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="BO5" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="BP5" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="BQ5" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BR5" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="BM5" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BN5" s="3" t="n">
+      <x:c r="BS5" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="BO5" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BP5" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BQ5" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BR5" s="3" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="BS5" s="3" t="n">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="BT5" s="3" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="BU5" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="BV5" s="3" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="BW5" s="3" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="BX5" s="3" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="BY5" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="BW5" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BX5" s="3" t="n">
+      <x:c r="BZ5" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CA5" s="3" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="CB5" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="CC5" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="CD5" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="CE5" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CF5" s="3" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="CG5" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="CH5" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CI5" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CJ5" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="BY5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BZ5" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="CA5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="CB5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="CC5" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="CD5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="CE5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="CF5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="CG5" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="CH5" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="CI5" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="CJ5" s="3" t="n">
-        <x:v>3</x:v>
-      </x:c>
       <x:c r="CK5" s="3" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="CL5" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="CM5" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CN5" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CO5" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="CP5" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CQ5" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CR5" s="3" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="CS5" s="3" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="CN5" s="3" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="CO5" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="CP5" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="CQ5" s="3" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="CR5" s="3" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="CS5" s="3" t="n">
-        <x:v>3</x:v>
-      </x:c>
       <x:c r="CT5" s="3" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="CU5" s="3" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="CV5" s="3" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="CW5" s="3" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="CX5" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="CY5" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="CZ5" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:104">
@@ -1745,112 +1745,112 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D6" s="5" t="n">
-        <x:v>2843750</x:v>
+        <x:v>3656250</x:v>
       </x:c>
       <x:c r="E6" s="5" t="n">
-        <x:v>2437500</x:v>
+        <x:v>3656250</x:v>
       </x:c>
       <x:c r="F6" s="5" t="n">
-        <x:v>2640625</x:v>
+        <x:v>3656250</x:v>
       </x:c>
       <x:c r="G6" s="5" t="n">
-        <x:v>2843750</x:v>
+        <x:v>3656250</x:v>
       </x:c>
       <x:c r="H6" s="5" t="n">
-        <x:v>2843750</x:v>
+        <x:v>3656250</x:v>
       </x:c>
       <x:c r="I6" s="5" t="n">
-        <x:v>2437500</x:v>
+        <x:v>3656250</x:v>
       </x:c>
       <x:c r="J6" s="5" t="n">
-        <x:v>2843750</x:v>
+        <x:v>3046875</x:v>
       </x:c>
       <x:c r="K6" s="5" t="n">
-        <x:v>2843750</x:v>
+        <x:v>3046875</x:v>
       </x:c>
       <x:c r="L6" s="5" t="n">
-        <x:v>2843750</x:v>
+        <x:v>3046875</x:v>
       </x:c>
       <x:c r="M6" s="5" t="n">
-        <x:v>2843750</x:v>
+        <x:v>3046875</x:v>
       </x:c>
       <x:c r="N6" s="5" t="n">
-        <x:v>2843750</x:v>
+        <x:v>3046875</x:v>
       </x:c>
       <x:c r="O6" s="5" t="n">
-        <x:v>2843750</x:v>
+        <x:v>3046875</x:v>
       </x:c>
       <x:c r="P6" s="5" t="n">
-        <x:v>2843750</x:v>
+        <x:v>3046875</x:v>
       </x:c>
       <x:c r="Q6" s="5" t="n">
-        <x:v>2843750</x:v>
+        <x:v>3046875</x:v>
       </x:c>
       <x:c r="R6" s="5" t="n">
-        <x:v>2843750</x:v>
+        <x:v>3046875</x:v>
       </x:c>
       <x:c r="S6" s="5" t="n">
-        <x:v>2843750</x:v>
+        <x:v>3046875</x:v>
       </x:c>
       <x:c r="T6" s="5" t="n">
-        <x:v>2843750</x:v>
+        <x:v>3046875</x:v>
       </x:c>
       <x:c r="U6" s="5" t="n">
-        <x:v>2843750</x:v>
+        <x:v>3453125</x:v>
       </x:c>
       <x:c r="V6" s="5" t="n">
-        <x:v>2843750</x:v>
+        <x:v>3656250</x:v>
       </x:c>
       <x:c r="W6" s="5" t="n">
-        <x:v>2843750</x:v>
+        <x:v>3046875</x:v>
       </x:c>
       <x:c r="X6" s="5" t="n">
         <x:v>3046875</x:v>
       </x:c>
       <x:c r="Y6" s="5" t="n">
-        <x:v>2843750</x:v>
+        <x:v>3046875</x:v>
       </x:c>
       <x:c r="Z6" s="5" t="n">
-        <x:v>2843750</x:v>
+        <x:v>3046875</x:v>
       </x:c>
       <x:c r="AA6" s="5" t="n">
-        <x:v>2843750</x:v>
+        <x:v>3046875</x:v>
       </x:c>
       <x:c r="AB6" s="5" t="n">
-        <x:v>2843750</x:v>
+        <x:v>3046875</x:v>
       </x:c>
       <x:c r="AC6" s="5" t="n">
         <x:v>3046875</x:v>
       </x:c>
       <x:c r="AD6" s="5" t="n">
+        <x:v>3453125</x:v>
+      </x:c>
+      <x:c r="AE6" s="5" t="n">
         <x:v>3046875</x:v>
       </x:c>
-      <x:c r="AE6" s="5" t="n">
-        <x:v>2843750</x:v>
-      </x:c>
       <x:c r="AF6" s="5" t="n">
-        <x:v>2843750</x:v>
+        <x:v>3046875</x:v>
       </x:c>
       <x:c r="AG6" s="5" t="n">
-        <x:v>2843750</x:v>
+        <x:v>3046875</x:v>
       </x:c>
       <x:c r="AH6" s="5" t="n">
-        <x:v>2843750</x:v>
+        <x:v>3453125</x:v>
       </x:c>
       <x:c r="AI6" s="5" t="n">
-        <x:v>2843750</x:v>
+        <x:v>3046875</x:v>
       </x:c>
       <x:c r="AJ6" s="5" t="n">
-        <x:v>2843750</x:v>
+        <x:v>3453125</x:v>
       </x:c>
       <x:c r="AK6" s="5" t="n">
-        <x:v>2843750</x:v>
+        <x:v>3046875</x:v>
       </x:c>
       <x:c r="AL6" s="5" t="n">
-        <x:v>2843750</x:v>
+        <x:v>3046875</x:v>
       </x:c>
       <x:c r="AM6" s="5" t="n">
-        <x:v>2843750</x:v>
+        <x:v>3046875</x:v>
       </x:c>
       <x:c r="AN6" s="5" t="n">
         <x:v>3046875</x:v>
@@ -1910,142 +1910,142 @@
         <x:v>3046875</x:v>
       </x:c>
       <x:c r="BG6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>2843750</x:v>
       </x:c>
       <x:c r="BH6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>2843750</x:v>
       </x:c>
       <x:c r="BI6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>2843750</x:v>
       </x:c>
       <x:c r="BJ6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>2843750</x:v>
       </x:c>
       <x:c r="BK6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>3453125</x:v>
       </x:c>
       <x:c r="BL6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>3453125</x:v>
       </x:c>
       <x:c r="BM6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>3453125</x:v>
       </x:c>
       <x:c r="BN6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>2843750</x:v>
       </x:c>
       <x:c r="BO6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>2843750</x:v>
       </x:c>
       <x:c r="BP6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>3453125</x:v>
       </x:c>
       <x:c r="BQ6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>2843750</x:v>
       </x:c>
       <x:c r="BR6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>3453125</x:v>
       </x:c>
       <x:c r="BS6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>2843750</x:v>
       </x:c>
       <x:c r="BT6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>2843750</x:v>
       </x:c>
       <x:c r="BU6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>2843750</x:v>
       </x:c>
       <x:c r="BV6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>2843750</x:v>
       </x:c>
       <x:c r="BW6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>2843750</x:v>
       </x:c>
       <x:c r="BX6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>2843750</x:v>
       </x:c>
       <x:c r="BY6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>2843750</x:v>
       </x:c>
       <x:c r="BZ6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>2843750</x:v>
       </x:c>
       <x:c r="CA6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>2843750</x:v>
       </x:c>
       <x:c r="CB6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>2843750</x:v>
       </x:c>
       <x:c r="CC6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>2843750</x:v>
       </x:c>
       <x:c r="CD6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>2843750</x:v>
       </x:c>
       <x:c r="CE6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>2843750</x:v>
       </x:c>
       <x:c r="CF6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>2843750</x:v>
       </x:c>
       <x:c r="CG6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>2843750</x:v>
       </x:c>
       <x:c r="CH6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>2843750</x:v>
       </x:c>
       <x:c r="CI6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>2843750</x:v>
       </x:c>
       <x:c r="CJ6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>2843750</x:v>
       </x:c>
       <x:c r="CK6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>2437500</x:v>
       </x:c>
       <x:c r="CL6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>2437500</x:v>
       </x:c>
       <x:c r="CM6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>2437500</x:v>
       </x:c>
       <x:c r="CN6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>2437500</x:v>
       </x:c>
       <x:c r="CO6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>2437500</x:v>
       </x:c>
       <x:c r="CP6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>2437500</x:v>
       </x:c>
       <x:c r="CQ6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>2437500</x:v>
       </x:c>
       <x:c r="CR6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>2437500</x:v>
       </x:c>
       <x:c r="CS6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>2437500</x:v>
       </x:c>
       <x:c r="CT6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>2437500</x:v>
       </x:c>
       <x:c r="CU6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>2437500</x:v>
       </x:c>
       <x:c r="CV6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>2437500</x:v>
       </x:c>
       <x:c r="CW6" s="5" t="n">
-        <x:v>3046875</x:v>
+        <x:v>2437500</x:v>
       </x:c>
       <x:c r="CX6" s="5" t="n">
-        <x:v>2843750</x:v>
+        <x:v>2437500</x:v>
       </x:c>
       <x:c r="CY6" s="5" t="n">
-        <x:v>2843750</x:v>
+        <x:v>2437500</x:v>
       </x:c>
       <x:c r="CZ6" s="5" t="n">
-        <x:v>2843750</x:v>
+        <x:v>2437500</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:104">
@@ -2056,214 +2056,214 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D8" s="3" t="n">
-        <x:v>32</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E8" s="3" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F8" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G8" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H8" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I8" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J8" s="3" t="n">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="F8" s="3" t="n">
+      <x:c r="K8" s="3" t="n">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="L8" s="3" t="n">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="G8" s="3" t="n">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="H8" s="3" t="n">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I8" s="3" t="n">
+      <x:c r="M8" s="3" t="n">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="J8" s="3" t="n">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="K8" s="3" t="n">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="L8" s="3" t="n">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="M8" s="3" t="n">
-        <x:v>38</x:v>
-      </x:c>
       <x:c r="N8" s="3" t="n">
-        <x:v>36</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="O8" s="3" t="n">
-        <x:v>32</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="P8" s="3" t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="Q8" s="3" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="R8" s="3" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="S8" s="3" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="T8" s="3" t="n">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="U8" s="3" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="V8" s="3" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="W8" s="3" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="X8" s="3" t="n">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="Q8" s="3" t="n">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="R8" s="3" t="n">
+      <x:c r="Y8" s="3" t="n">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="S8" s="3" t="n">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="T8" s="3" t="n">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="U8" s="3" t="n">
+      <x:c r="Z8" s="3" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="AA8" s="3" t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="AB8" s="3" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="AC8" s="3" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="AD8" s="3" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="AE8" s="3" t="n">
         <x:v>22</x:v>
-      </x:c>
-      <x:c r="V8" s="3" t="n">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="W8" s="3" t="n">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="X8" s="3" t="n">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="Y8" s="3" t="n">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="Z8" s="3" t="n">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="AA8" s="3" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="AB8" s="3" t="n">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="AC8" s="3" t="n">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="AD8" s="3" t="n">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="AE8" s="3" t="n">
-        <x:v>20</x:v>
       </x:c>
       <x:c r="AF8" s="3" t="n">
         <x:v>23</x:v>
       </x:c>
       <x:c r="AG8" s="3" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="AH8" s="3" t="n">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="AI8" s="3" t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="AJ8" s="3" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="AK8" s="3" t="n">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="AL8" s="3" t="n">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="AM8" s="3" t="n">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="AN8" s="3" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="AO8" s="3" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="AP8" s="3" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="AQ8" s="3" t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="AR8" s="3" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="AS8" s="3" t="n">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="AT8" s="3" t="n">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="AU8" s="3" t="n">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="AV8" s="3" t="n">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="AW8" s="3" t="n">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AX8" s="3" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="AY8" s="3" t="n">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="AZ8" s="3" t="n">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="BA8" s="3" t="n">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="BB8" s="3" t="n">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="AH8" s="3" t="n">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="AI8" s="3" t="n">
+      <x:c r="BC8" s="3" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="BD8" s="3" t="n">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="BE8" s="3" t="n">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="BF8" s="3" t="n">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="BG8" s="3" t="n">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="BH8" s="3" t="n">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="BI8" s="3" t="n">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="BJ8" s="3" t="n">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="BK8" s="3" t="n">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="BL8" s="3" t="n">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="BM8" s="3" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="BN8" s="3" t="n">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="BO8" s="3" t="n">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="BP8" s="3" t="n">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="AJ8" s="3" t="n">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="AK8" s="3" t="n">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="AL8" s="3" t="n">
+      <x:c r="BQ8" s="3" t="n">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="BR8" s="3" t="n">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="AM8" s="3" t="n">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="AN8" s="3" t="n">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="AO8" s="3" t="n">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="AP8" s="3" t="n">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="AQ8" s="3" t="n">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="AR8" s="3" t="n">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="AS8" s="3" t="n">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="AT8" s="3" t="n">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="AU8" s="3" t="n">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="AV8" s="3" t="n">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="AW8" s="3" t="n">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="AX8" s="3" t="n">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="AY8" s="3" t="n">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="AZ8" s="3" t="n">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="BA8" s="3" t="n">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="BB8" s="3" t="n">
+      <x:c r="BS8" s="3" t="n">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="BC8" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BD8" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BE8" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BF8" s="3" t="n">
+      <x:c r="BT8" s="3" t="n">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="BG8" s="3" t="n">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="BH8" s="3" t="n">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="BI8" s="3" t="n">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="BJ8" s="3" t="n">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="BK8" s="3" t="n">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="BL8" s="3" t="n">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="BM8" s="3" t="n">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="BN8" s="3" t="n">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="BO8" s="3" t="n">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="BP8" s="3" t="n">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="BQ8" s="3" t="n">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="BR8" s="3" t="n">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="BS8" s="3" t="n">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="BT8" s="3" t="n">
-        <x:v>29</x:v>
-      </x:c>
       <x:c r="BU8" s="3" t="n">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="BV8" s="3" t="n">
         <x:v>37</x:v>
@@ -2272,91 +2272,91 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="BX8" s="3" t="n">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="BY8" s="3" t="n">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="BZ8" s="3" t="n">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="CA8" s="3" t="n">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="BY8" s="3" t="n">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="BZ8" s="3" t="n">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="CA8" s="3" t="n">
+      <x:c r="CB8" s="3" t="n">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="CC8" s="3" t="n">
         <x:v>38</x:v>
-      </x:c>
-      <x:c r="CB8" s="3" t="n">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="CC8" s="3" t="n">
-        <x:v>39</x:v>
       </x:c>
       <x:c r="CD8" s="3" t="n">
         <x:v>38</x:v>
       </x:c>
       <x:c r="CE8" s="3" t="n">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="CF8" s="3" t="n">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="CF8" s="3" t="n">
+      <x:c r="CG8" s="3" t="n">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="CG8" s="3" t="n">
-        <x:v>37</x:v>
-      </x:c>
       <x:c r="CH8" s="3" t="n">
-        <x:v>38</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="CI8" s="3" t="n">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="CJ8" s="3" t="n">
-        <x:v>39</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="CK8" s="3" t="n">
-        <x:v>39</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="CL8" s="3" t="n">
-        <x:v>38</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="CM8" s="3" t="n">
-        <x:v>38</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="CN8" s="3" t="n">
-        <x:v>38</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="CO8" s="3" t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="CP8" s="3" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="CQ8" s="3" t="n">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="CR8" s="3" t="n">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="CS8" s="3" t="n">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="CT8" s="3" t="n">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="CP8" s="3" t="n">
+      <x:c r="CU8" s="3" t="n">
         <x:v>35</x:v>
-      </x:c>
-      <x:c r="CQ8" s="3" t="n">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="CR8" s="3" t="n">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="CS8" s="3" t="n">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="CT8" s="3" t="n">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="CU8" s="3" t="n">
-        <x:v>33</x:v>
       </x:c>
       <x:c r="CV8" s="3" t="n">
         <x:v>36</x:v>
       </x:c>
       <x:c r="CW8" s="3" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="CX8" s="3" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="CY8" s="3" t="n">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="CZ8" s="3" t="n">
-        <x:v>38</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:104">
@@ -2370,112 +2370,112 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D9" s="5" t="n">
-        <x:v>2980250</x:v>
+        <x:v>3831750</x:v>
       </x:c>
       <x:c r="E9" s="5" t="n">
-        <x:v>2554500</x:v>
+        <x:v>3831750</x:v>
       </x:c>
       <x:c r="F9" s="5" t="n">
-        <x:v>2767375</x:v>
+        <x:v>3831750</x:v>
       </x:c>
       <x:c r="G9" s="5" t="n">
-        <x:v>2980250</x:v>
+        <x:v>3831750</x:v>
       </x:c>
       <x:c r="H9" s="5" t="n">
-        <x:v>2980250</x:v>
+        <x:v>3831750</x:v>
       </x:c>
       <x:c r="I9" s="5" t="n">
-        <x:v>2554500</x:v>
+        <x:v>3831750</x:v>
       </x:c>
       <x:c r="J9" s="5" t="n">
-        <x:v>2980250</x:v>
+        <x:v>3193125</x:v>
       </x:c>
       <x:c r="K9" s="5" t="n">
-        <x:v>2980250</x:v>
+        <x:v>3193125</x:v>
       </x:c>
       <x:c r="L9" s="5" t="n">
-        <x:v>2980250</x:v>
+        <x:v>3193125</x:v>
       </x:c>
       <x:c r="M9" s="5" t="n">
-        <x:v>2980250</x:v>
+        <x:v>3193125</x:v>
       </x:c>
       <x:c r="N9" s="5" t="n">
-        <x:v>2980250</x:v>
+        <x:v>3618875</x:v>
       </x:c>
       <x:c r="O9" s="5" t="n">
-        <x:v>2980250</x:v>
+        <x:v>3193125</x:v>
       </x:c>
       <x:c r="P9" s="5" t="n">
-        <x:v>2980250</x:v>
+        <x:v>3193125</x:v>
       </x:c>
       <x:c r="Q9" s="5" t="n">
-        <x:v>2980250</x:v>
+        <x:v>3193125</x:v>
       </x:c>
       <x:c r="R9" s="5" t="n">
-        <x:v>2980250</x:v>
+        <x:v>3193125</x:v>
       </x:c>
       <x:c r="S9" s="5" t="n">
-        <x:v>2980250</x:v>
+        <x:v>3193125</x:v>
       </x:c>
       <x:c r="T9" s="5" t="n">
-        <x:v>2980250</x:v>
+        <x:v>3193125</x:v>
       </x:c>
       <x:c r="U9" s="5" t="n">
-        <x:v>2980250</x:v>
+        <x:v>3618875</x:v>
       </x:c>
       <x:c r="V9" s="5" t="n">
-        <x:v>2980250</x:v>
+        <x:v>3618875</x:v>
       </x:c>
       <x:c r="W9" s="5" t="n">
-        <x:v>2980250</x:v>
+        <x:v>3193125</x:v>
       </x:c>
       <x:c r="X9" s="5" t="n">
         <x:v>3193125</x:v>
       </x:c>
       <x:c r="Y9" s="5" t="n">
-        <x:v>2980250</x:v>
+        <x:v>3193125</x:v>
       </x:c>
       <x:c r="Z9" s="5" t="n">
-        <x:v>2980250</x:v>
+        <x:v>3193125</x:v>
       </x:c>
       <x:c r="AA9" s="5" t="n">
-        <x:v>2980250</x:v>
+        <x:v>3193125</x:v>
       </x:c>
       <x:c r="AB9" s="5" t="n">
-        <x:v>2980250</x:v>
+        <x:v>3193125</x:v>
       </x:c>
       <x:c r="AC9" s="5" t="n">
         <x:v>3193125</x:v>
       </x:c>
       <x:c r="AD9" s="5" t="n">
+        <x:v>3618875</x:v>
+      </x:c>
+      <x:c r="AE9" s="5" t="n">
         <x:v>3193125</x:v>
       </x:c>
-      <x:c r="AE9" s="5" t="n">
-        <x:v>2980250</x:v>
-      </x:c>
       <x:c r="AF9" s="5" t="n">
-        <x:v>2980250</x:v>
+        <x:v>3193125</x:v>
       </x:c>
       <x:c r="AG9" s="5" t="n">
-        <x:v>2980250</x:v>
+        <x:v>3193125</x:v>
       </x:c>
       <x:c r="AH9" s="5" t="n">
-        <x:v>2980250</x:v>
+        <x:v>3193125</x:v>
       </x:c>
       <x:c r="AI9" s="5" t="n">
-        <x:v>2980250</x:v>
+        <x:v>3193125</x:v>
       </x:c>
       <x:c r="AJ9" s="5" t="n">
-        <x:v>2980250</x:v>
+        <x:v>3193125</x:v>
       </x:c>
       <x:c r="AK9" s="5" t="n">
-        <x:v>2980250</x:v>
+        <x:v>3193125</x:v>
       </x:c>
       <x:c r="AL9" s="5" t="n">
-        <x:v>2980250</x:v>
+        <x:v>3193125</x:v>
       </x:c>
       <x:c r="AM9" s="5" t="n">
-        <x:v>2980250</x:v>
+        <x:v>3193125</x:v>
       </x:c>
       <x:c r="AN9" s="5" t="n">
         <x:v>3193125</x:v>
@@ -2535,142 +2535,142 @@
         <x:v>3193125</x:v>
       </x:c>
       <x:c r="BG9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2980250</x:v>
       </x:c>
       <x:c r="BH9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2980250</x:v>
       </x:c>
       <x:c r="BI9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2980250</x:v>
       </x:c>
       <x:c r="BJ9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2980250</x:v>
       </x:c>
       <x:c r="BK9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>3618875</x:v>
       </x:c>
       <x:c r="BL9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>3618875</x:v>
       </x:c>
       <x:c r="BM9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>3618875</x:v>
       </x:c>
       <x:c r="BN9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2980250</x:v>
       </x:c>
       <x:c r="BO9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2980250</x:v>
       </x:c>
       <x:c r="BP9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2980250</x:v>
       </x:c>
       <x:c r="BQ9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2980250</x:v>
       </x:c>
       <x:c r="BR9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>3618875</x:v>
       </x:c>
       <x:c r="BS9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2980250</x:v>
       </x:c>
       <x:c r="BT9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2980250</x:v>
       </x:c>
       <x:c r="BU9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2980250</x:v>
       </x:c>
       <x:c r="BV9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2980250</x:v>
       </x:c>
       <x:c r="BW9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2980250</x:v>
       </x:c>
       <x:c r="BX9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2980250</x:v>
       </x:c>
       <x:c r="BY9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2980250</x:v>
       </x:c>
       <x:c r="BZ9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2980250</x:v>
       </x:c>
       <x:c r="CA9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2980250</x:v>
       </x:c>
       <x:c r="CB9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2980250</x:v>
       </x:c>
       <x:c r="CC9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2980250</x:v>
       </x:c>
       <x:c r="CD9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2980250</x:v>
       </x:c>
       <x:c r="CE9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2980250</x:v>
       </x:c>
       <x:c r="CF9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2980250</x:v>
       </x:c>
       <x:c r="CG9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2980250</x:v>
       </x:c>
       <x:c r="CH9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2980250</x:v>
       </x:c>
       <x:c r="CI9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2980250</x:v>
       </x:c>
       <x:c r="CJ9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2980250</x:v>
       </x:c>
       <x:c r="CK9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2554500</x:v>
       </x:c>
       <x:c r="CL9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2554500</x:v>
       </x:c>
       <x:c r="CM9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2554500</x:v>
       </x:c>
       <x:c r="CN9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2554500</x:v>
       </x:c>
       <x:c r="CO9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2554500</x:v>
       </x:c>
       <x:c r="CP9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2554500</x:v>
       </x:c>
       <x:c r="CQ9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2554500</x:v>
       </x:c>
       <x:c r="CR9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2554500</x:v>
       </x:c>
       <x:c r="CS9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2554500</x:v>
       </x:c>
       <x:c r="CT9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2554500</x:v>
       </x:c>
       <x:c r="CU9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2554500</x:v>
       </x:c>
       <x:c r="CV9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2554500</x:v>
       </x:c>
       <x:c r="CW9" s="5" t="n">
-        <x:v>3193125</x:v>
+        <x:v>2554500</x:v>
       </x:c>
       <x:c r="CX9" s="5" t="n">
-        <x:v>2980250</x:v>
+        <x:v>2554500</x:v>
       </x:c>
       <x:c r="CY9" s="5" t="n">
-        <x:v>2980250</x:v>
+        <x:v>2554500</x:v>
       </x:c>
       <x:c r="CZ9" s="5" t="n">
-        <x:v>2980250</x:v>
+        <x:v>2554500</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:104">
@@ -2681,259 +2681,259 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D11" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E11" s="3" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F11" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F11" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="G11" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H11" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I11" s="3" t="s">
-        <x:v>3</x:v>
+      <x:c r="I11" s="3" t="n">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J11" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K11" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L11" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M11" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N11" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O11" s="3" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="P11" s="3" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="Q11" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R11" s="3" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="S11" s="3" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="T11" s="3" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="U11" s="3" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="V11" s="3" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="W11" s="3" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="X11" s="3" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="Y11" s="3" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="Z11" s="3" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="AA11" s="3" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="AB11" s="3" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="AC11" s="3" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="AD11" s="3" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="AE11" s="3" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="AF11" s="3" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="AG11" s="3" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="AH11" s="3" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="AI11" s="3" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="AJ11" s="3" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="AK11" s="3" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="AL11" s="3" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="AM11" s="3" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="AN11" s="3" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="AO11" s="3" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="AP11" s="3" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="AQ11" s="3" t="n">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="K11" s="3" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="L11" s="3" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="M11" s="3" t="n">
+      <x:c r="AR11" s="3" t="n">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="N11" s="3" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="O11" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P11" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="Q11" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R11" s="3" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S11" s="3" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T11" s="3" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="U11" s="3" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V11" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W11" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X11" s="3" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="Y11" s="3" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="Z11" s="3" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="AA11" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB11" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="AC11" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD11" s="3" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="AE11" s="3" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="AF11" s="3" t="n">
+      <x:c r="AS11" s="3" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="AT11" s="3" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="AU11" s="3" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="AV11" s="3" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="AW11" s="3" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="AX11" s="3" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="AG11" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH11" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI11" s="3" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="AJ11" s="3" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="AK11" s="3" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="AL11" s="3" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="AM11" s="3" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="AN11" s="3" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="AO11" s="3" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="AP11" s="3" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AQ11" s="3" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="AR11" s="3" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="AS11" s="3" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="AT11" s="3" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="AU11" s="3" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AV11" s="3" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="AW11" s="3" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="AX11" s="3" t="n">
-        <x:v>7</x:v>
-      </x:c>
       <x:c r="AY11" s="3" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="AZ11" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="BA11" s="3" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="BB11" s="3" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="BC11" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BD11" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BE11" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="BC11" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD11" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE11" s="3" t="n">
+        <x:v>2</x:v>
       </x:c>
       <x:c r="BF11" s="3" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="BG11" s="3" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="BH11" s="3" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="BI11" s="3" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="BH11" s="3" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BI11" s="3" t="n">
-        <x:v>5</x:v>
-      </x:c>
       <x:c r="BJ11" s="3" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="BK11" s="3" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="BL11" s="3" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="BM11" s="3" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BN11" s="3" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="BO11" s="3" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="BP11" s="3" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="BQ11" s="3" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="BR11" s="3" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="BS11" s="3" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="BT11" s="3" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="BU11" s="3" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="BV11" s="3" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="BQ11" s="3" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BR11" s="3" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="BS11" s="3" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="BT11" s="3" t="n">
+      <x:c r="BW11" s="3" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="BU11" s="3" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="BV11" s="3" t="n">
+      <x:c r="BX11" s="3" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="BW11" s="3" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="BX11" s="3" t="n">
-        <x:v>8</x:v>
-      </x:c>
       <x:c r="BY11" s="3" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="BZ11" s="3" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="CA11" s="3" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="CB11" s="3" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="CC11" s="3" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="CD11" s="3" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="CE11" s="3" t="n">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="CC11" s="3" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="CD11" s="3" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="CE11" s="3" t="n">
-        <x:v>5</x:v>
-      </x:c>
       <x:c r="CF11" s="3" t="n">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="CG11" s="3" t="n">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="CH11" s="3" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="CI11" s="3" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="CJ11" s="3" t="n">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="CK11" s="3" t="n">
         <x:v>9</x:v>
@@ -2942,46 +2942,46 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="CM11" s="3" t="n">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="CN11" s="3" t="n">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="CO11" s="3" t="n">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="CP11" s="3" t="n">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="CQ11" s="3" t="n">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="CR11" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CQ11" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="CR11" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="CS11" s="3" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="CT11" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CU11" s="3" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="CV11" s="3" t="n">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="CS11" s="3" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="CT11" s="3" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="CU11" s="3" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="CV11" s="3" t="n">
-        <x:v>7</x:v>
-      </x:c>
       <x:c r="CW11" s="3" t="n">
-        <x:v>7</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="CX11" s="3" t="n">
-        <x:v>6</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="CY11" s="3" t="n">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="CZ11" s="3" t="n">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:104">
@@ -2995,112 +2995,112 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D12" s="5" t="n">
-        <x:v>3731000</x:v>
+        <x:v>4797000</x:v>
       </x:c>
       <x:c r="E12" s="5" t="n">
-        <x:v>3198000</x:v>
+        <x:v>4797000</x:v>
       </x:c>
       <x:c r="F12" s="5" t="n">
-        <x:v>3464500</x:v>
+        <x:v>4797000</x:v>
       </x:c>
       <x:c r="G12" s="5" t="n">
-        <x:v>3731000</x:v>
+        <x:v>4797000</x:v>
       </x:c>
       <x:c r="H12" s="5" t="n">
-        <x:v>3731000</x:v>
+        <x:v>4797000</x:v>
       </x:c>
       <x:c r="I12" s="5" t="n">
-        <x:v>3198000</x:v>
+        <x:v>4797000</x:v>
       </x:c>
       <x:c r="J12" s="5" t="n">
-        <x:v>3731000</x:v>
+        <x:v>3997500</x:v>
       </x:c>
       <x:c r="K12" s="5" t="n">
-        <x:v>3731000</x:v>
+        <x:v>3997500</x:v>
       </x:c>
       <x:c r="L12" s="5" t="n">
-        <x:v>3731000</x:v>
+        <x:v>3997500</x:v>
       </x:c>
       <x:c r="M12" s="5" t="n">
-        <x:v>3731000</x:v>
+        <x:v>3997500</x:v>
       </x:c>
       <x:c r="N12" s="5" t="n">
-        <x:v>3731000</x:v>
+        <x:v>4530500</x:v>
       </x:c>
       <x:c r="O12" s="5" t="n">
-        <x:v>3731000</x:v>
+        <x:v>3997500</x:v>
       </x:c>
       <x:c r="P12" s="5" t="n">
-        <x:v>3731000</x:v>
+        <x:v>3997500</x:v>
       </x:c>
       <x:c r="Q12" s="5" t="n">
-        <x:v>3731000</x:v>
+        <x:v>4797000</x:v>
       </x:c>
       <x:c r="R12" s="5" t="n">
-        <x:v>3731000</x:v>
+        <x:v>4797000</x:v>
       </x:c>
       <x:c r="S12" s="5" t="n">
-        <x:v>3731000</x:v>
+        <x:v>4797000</x:v>
       </x:c>
       <x:c r="T12" s="5" t="n">
-        <x:v>3731000</x:v>
+        <x:v>4797000</x:v>
       </x:c>
       <x:c r="U12" s="5" t="n">
-        <x:v>3731000</x:v>
+        <x:v>4797000</x:v>
       </x:c>
       <x:c r="V12" s="5" t="n">
-        <x:v>3731000</x:v>
+        <x:v>4797000</x:v>
       </x:c>
       <x:c r="W12" s="5" t="n">
-        <x:v>3731000</x:v>
+        <x:v>4797000</x:v>
       </x:c>
       <x:c r="X12" s="5" t="n">
+        <x:v>4797000</x:v>
+      </x:c>
+      <x:c r="Y12" s="5" t="n">
         <x:v>3997500</x:v>
       </x:c>
-      <x:c r="Y12" s="5" t="n">
-        <x:v>3731000</x:v>
-      </x:c>
       <x:c r="Z12" s="5" t="n">
-        <x:v>3731000</x:v>
+        <x:v>3997500</x:v>
       </x:c>
       <x:c r="AA12" s="5" t="n">
         <x:v>3997500</x:v>
       </x:c>
       <x:c r="AB12" s="5" t="n">
-        <x:v>3731000</x:v>
+        <x:v>3997500</x:v>
       </x:c>
       <x:c r="AC12" s="5" t="n">
         <x:v>3997500</x:v>
       </x:c>
       <x:c r="AD12" s="5" t="n">
+        <x:v>4530500</x:v>
+      </x:c>
+      <x:c r="AE12" s="5" t="n">
         <x:v>3997500</x:v>
       </x:c>
-      <x:c r="AE12" s="5" t="n">
-        <x:v>3731000</x:v>
-      </x:c>
       <x:c r="AF12" s="5" t="n">
-        <x:v>3731000</x:v>
+        <x:v>3997500</x:v>
       </x:c>
       <x:c r="AG12" s="5" t="n">
-        <x:v>3731000</x:v>
+        <x:v>3997500</x:v>
       </x:c>
       <x:c r="AH12" s="5" t="n">
-        <x:v>3731000</x:v>
+        <x:v>3997500</x:v>
       </x:c>
       <x:c r="AI12" s="5" t="n">
-        <x:v>3731000</x:v>
+        <x:v>3997500</x:v>
       </x:c>
       <x:c r="AJ12" s="5" t="n">
-        <x:v>3731000</x:v>
+        <x:v>3997500</x:v>
       </x:c>
       <x:c r="AK12" s="5" t="n">
-        <x:v>3731000</x:v>
+        <x:v>3997500</x:v>
       </x:c>
       <x:c r="AL12" s="5" t="n">
-        <x:v>3731000</x:v>
+        <x:v>3997500</x:v>
       </x:c>
       <x:c r="AM12" s="5" t="n">
-        <x:v>3731000</x:v>
+        <x:v>3997500</x:v>
       </x:c>
       <x:c r="AN12" s="5" t="n">
         <x:v>3997500</x:v>
@@ -3160,142 +3160,142 @@
         <x:v>3997500</x:v>
       </x:c>
       <x:c r="BG12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3731000</x:v>
       </x:c>
       <x:c r="BH12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3731000</x:v>
       </x:c>
       <x:c r="BI12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3731000</x:v>
       </x:c>
       <x:c r="BJ12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3731000</x:v>
       </x:c>
       <x:c r="BK12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>4530500</x:v>
       </x:c>
       <x:c r="BL12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>4530500</x:v>
       </x:c>
       <x:c r="BM12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>4530500</x:v>
       </x:c>
       <x:c r="BN12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3731000</x:v>
       </x:c>
       <x:c r="BO12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3731000</x:v>
       </x:c>
       <x:c r="BP12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3731000</x:v>
       </x:c>
       <x:c r="BQ12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3731000</x:v>
       </x:c>
       <x:c r="BR12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>4530500</x:v>
       </x:c>
       <x:c r="BS12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3731000</x:v>
       </x:c>
       <x:c r="BT12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3731000</x:v>
       </x:c>
       <x:c r="BU12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3731000</x:v>
       </x:c>
       <x:c r="BV12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3731000</x:v>
       </x:c>
       <x:c r="BW12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3731000</x:v>
       </x:c>
       <x:c r="BX12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3731000</x:v>
       </x:c>
       <x:c r="BY12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3731000</x:v>
       </x:c>
       <x:c r="BZ12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3731000</x:v>
       </x:c>
       <x:c r="CA12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3731000</x:v>
       </x:c>
       <x:c r="CB12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3731000</x:v>
       </x:c>
       <x:c r="CC12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3731000</x:v>
       </x:c>
       <x:c r="CD12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3731000</x:v>
       </x:c>
       <x:c r="CE12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3731000</x:v>
       </x:c>
       <x:c r="CF12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3731000</x:v>
       </x:c>
       <x:c r="CG12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3731000</x:v>
       </x:c>
       <x:c r="CH12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3731000</x:v>
       </x:c>
       <x:c r="CI12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3731000</x:v>
       </x:c>
       <x:c r="CJ12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3731000</x:v>
       </x:c>
       <x:c r="CK12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3198000</x:v>
       </x:c>
       <x:c r="CL12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3198000</x:v>
       </x:c>
       <x:c r="CM12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3198000</x:v>
       </x:c>
       <x:c r="CN12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3198000</x:v>
       </x:c>
       <x:c r="CO12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3198000</x:v>
       </x:c>
       <x:c r="CP12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3198000</x:v>
       </x:c>
       <x:c r="CQ12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3198000</x:v>
       </x:c>
       <x:c r="CR12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3198000</x:v>
       </x:c>
       <x:c r="CS12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3198000</x:v>
       </x:c>
       <x:c r="CT12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3198000</x:v>
       </x:c>
       <x:c r="CU12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3198000</x:v>
       </x:c>
       <x:c r="CV12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3198000</x:v>
       </x:c>
       <x:c r="CW12" s="5" t="n">
-        <x:v>3997500</x:v>
+        <x:v>3198000</x:v>
       </x:c>
       <x:c r="CX12" s="5" t="n">
-        <x:v>3731000</x:v>
+        <x:v>3198000</x:v>
       </x:c>
       <x:c r="CY12" s="5" t="n">
-        <x:v>3731000</x:v>
+        <x:v>3198000</x:v>
       </x:c>
       <x:c r="CZ12" s="5" t="n">
-        <x:v>3731000</x:v>
+        <x:v>3198000</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:104">
@@ -3306,40 +3306,40 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D14" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E14" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F14" s="3" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G14" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F14" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G14" s="3" t="s">
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H14" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I14" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J14" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K14" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L14" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="K14" s="3" t="n">
+      <x:c r="M14" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="L14" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M14" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="N14" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O14" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P14" s="3" t="n">
         <x:v>0</x:v>
@@ -3348,13 +3348,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R14" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S14" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T14" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U14" s="3" t="n">
         <x:v>1</x:v>
@@ -3366,13 +3366,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="X14" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Y14" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Z14" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AA14" s="3" t="n">
         <x:v>1</x:v>
@@ -3384,7 +3384,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="AD14" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AE14" s="3" t="n">
         <x:v>1</x:v>
@@ -3399,46 +3399,46 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="AI14" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ14" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="AK14" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="AJ14" s="3" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="AK14" s="3" t="n">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AL14" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AM14" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AN14" s="3" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="AO14" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="AP14" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ14" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR14" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="AQ14" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="AR14" s="3" t="s">
+        <x:v>3</x:v>
       </x:c>
       <x:c r="AS14" s="3" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="AT14" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="AU14" s="3" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="AV14" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AW14" s="3" t="n">
         <x:v>2</x:v>
@@ -3458,47 +3458,47 @@
       <x:c r="BB14" s="3" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="BC14" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BD14" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BE14" s="3" t="s">
-        <x:v>3</x:v>
+      <x:c r="BC14" s="3" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="BD14" s="3" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="BE14" s="3" t="n">
+        <x:v>2</x:v>
       </x:c>
       <x:c r="BF14" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="BG14" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="BH14" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="BI14" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="BJ14" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="BK14" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="BL14" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BM14" s="3" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="BN14" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BO14" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BP14" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BQ14" s="3" t="n">
         <x:v>2</x:v>
@@ -3519,13 +3519,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="BW14" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="BX14" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="BY14" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="BZ14" s="3" t="n">
         <x:v>2</x:v>
@@ -3540,16 +3540,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="CD14" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="CE14" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="CF14" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="CG14" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="CH14" s="3" t="n">
         <x:v>1</x:v>
@@ -3573,7 +3573,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="CO14" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="CP14" s="3" t="n">
         <x:v>2</x:v>
@@ -3582,7 +3582,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="CR14" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="CS14" s="3" t="n">
         <x:v>2</x:v>
@@ -3620,112 +3620,112 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D15" s="5" t="n">
-        <x:v>4504500</x:v>
+        <x:v>5791500</x:v>
       </x:c>
       <x:c r="E15" s="5" t="n">
-        <x:v>3861000</x:v>
+        <x:v>5791500</x:v>
       </x:c>
       <x:c r="F15" s="5" t="n">
-        <x:v>4182750</x:v>
+        <x:v>5791500</x:v>
       </x:c>
       <x:c r="G15" s="5" t="n">
-        <x:v>4504500</x:v>
+        <x:v>5791500</x:v>
       </x:c>
       <x:c r="H15" s="5" t="n">
-        <x:v>4504500</x:v>
+        <x:v>5791500</x:v>
       </x:c>
       <x:c r="I15" s="5" t="n">
-        <x:v>3861000</x:v>
+        <x:v>5791500</x:v>
       </x:c>
       <x:c r="J15" s="5" t="n">
-        <x:v>4504500</x:v>
+        <x:v>4826250</x:v>
       </x:c>
       <x:c r="K15" s="5" t="n">
-        <x:v>4504500</x:v>
+        <x:v>4826250</x:v>
       </x:c>
       <x:c r="L15" s="5" t="n">
-        <x:v>4504500</x:v>
+        <x:v>4826250</x:v>
       </x:c>
       <x:c r="M15" s="5" t="n">
-        <x:v>4504500</x:v>
+        <x:v>4826250</x:v>
       </x:c>
       <x:c r="N15" s="5" t="n">
-        <x:v>4504500</x:v>
+        <x:v>5469750</x:v>
       </x:c>
       <x:c r="O15" s="5" t="n">
-        <x:v>4504500</x:v>
+        <x:v>4826250</x:v>
       </x:c>
       <x:c r="P15" s="5" t="n">
-        <x:v>4504500</x:v>
+        <x:v>4826250</x:v>
       </x:c>
       <x:c r="Q15" s="5" t="n">
-        <x:v>4504500</x:v>
+        <x:v>4826250</x:v>
       </x:c>
       <x:c r="R15" s="5" t="n">
-        <x:v>4504500</x:v>
+        <x:v>4826250</x:v>
       </x:c>
       <x:c r="S15" s="5" t="n">
-        <x:v>4504500</x:v>
+        <x:v>4826250</x:v>
       </x:c>
       <x:c r="T15" s="5" t="n">
-        <x:v>4504500</x:v>
+        <x:v>4826250</x:v>
       </x:c>
       <x:c r="U15" s="5" t="n">
-        <x:v>4504500</x:v>
+        <x:v>5469750</x:v>
       </x:c>
       <x:c r="V15" s="5" t="n">
-        <x:v>4504500</x:v>
+        <x:v>4826250</x:v>
       </x:c>
       <x:c r="W15" s="5" t="n">
-        <x:v>4504500</x:v>
+        <x:v>4826250</x:v>
       </x:c>
       <x:c r="X15" s="5" t="n">
         <x:v>4826250</x:v>
       </x:c>
       <x:c r="Y15" s="5" t="n">
-        <x:v>4504500</x:v>
+        <x:v>4826250</x:v>
       </x:c>
       <x:c r="Z15" s="5" t="n">
-        <x:v>4504500</x:v>
+        <x:v>4826250</x:v>
       </x:c>
       <x:c r="AA15" s="5" t="n">
-        <x:v>4504500</x:v>
+        <x:v>4826250</x:v>
       </x:c>
       <x:c r="AB15" s="5" t="n">
-        <x:v>4504500</x:v>
+        <x:v>4826250</x:v>
       </x:c>
       <x:c r="AC15" s="5" t="n">
         <x:v>4826250</x:v>
       </x:c>
       <x:c r="AD15" s="5" t="n">
+        <x:v>5469750</x:v>
+      </x:c>
+      <x:c r="AE15" s="5" t="n">
         <x:v>4826250</x:v>
       </x:c>
-      <x:c r="AE15" s="5" t="n">
-        <x:v>4504500</x:v>
-      </x:c>
       <x:c r="AF15" s="5" t="n">
-        <x:v>4504500</x:v>
+        <x:v>4826250</x:v>
       </x:c>
       <x:c r="AG15" s="5" t="n">
-        <x:v>4504500</x:v>
+        <x:v>4826250</x:v>
       </x:c>
       <x:c r="AH15" s="5" t="n">
-        <x:v>4504500</x:v>
+        <x:v>4826250</x:v>
       </x:c>
       <x:c r="AI15" s="5" t="n">
-        <x:v>4504500</x:v>
+        <x:v>4826250</x:v>
       </x:c>
       <x:c r="AJ15" s="5" t="n">
-        <x:v>4504500</x:v>
+        <x:v>4826250</x:v>
       </x:c>
       <x:c r="AK15" s="5" t="n">
-        <x:v>4504500</x:v>
+        <x:v>4826250</x:v>
       </x:c>
       <x:c r="AL15" s="5" t="n">
-        <x:v>4504500</x:v>
+        <x:v>4826250</x:v>
       </x:c>
       <x:c r="AM15" s="5" t="n">
-        <x:v>4504500</x:v>
+        <x:v>4826250</x:v>
       </x:c>
       <x:c r="AN15" s="5" t="n">
         <x:v>4826250</x:v>
@@ -3785,142 +3785,142 @@
         <x:v>4826250</x:v>
       </x:c>
       <x:c r="BG15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>4504500</x:v>
       </x:c>
       <x:c r="BH15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>4504500</x:v>
       </x:c>
       <x:c r="BI15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>4504500</x:v>
       </x:c>
       <x:c r="BJ15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>4504500</x:v>
       </x:c>
       <x:c r="BK15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>5469750</x:v>
       </x:c>
       <x:c r="BL15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>5469750</x:v>
       </x:c>
       <x:c r="BM15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>5469750</x:v>
       </x:c>
       <x:c r="BN15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>4504500</x:v>
       </x:c>
       <x:c r="BO15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>4504500</x:v>
       </x:c>
       <x:c r="BP15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>4504500</x:v>
       </x:c>
       <x:c r="BQ15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>4504500</x:v>
       </x:c>
       <x:c r="BR15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>5469750</x:v>
       </x:c>
       <x:c r="BS15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>4504500</x:v>
       </x:c>
       <x:c r="BT15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>4504500</x:v>
       </x:c>
       <x:c r="BU15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>4504500</x:v>
       </x:c>
       <x:c r="BV15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>4504500</x:v>
       </x:c>
       <x:c r="BW15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>4504500</x:v>
       </x:c>
       <x:c r="BX15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>4504500</x:v>
       </x:c>
       <x:c r="BY15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>4504500</x:v>
       </x:c>
       <x:c r="BZ15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>4504500</x:v>
       </x:c>
       <x:c r="CA15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>4504500</x:v>
       </x:c>
       <x:c r="CB15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>4504500</x:v>
       </x:c>
       <x:c r="CC15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>4504500</x:v>
       </x:c>
       <x:c r="CD15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>4504500</x:v>
       </x:c>
       <x:c r="CE15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>4504500</x:v>
       </x:c>
       <x:c r="CF15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>4504500</x:v>
       </x:c>
       <x:c r="CG15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>4504500</x:v>
       </x:c>
       <x:c r="CH15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>4504500</x:v>
       </x:c>
       <x:c r="CI15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>4504500</x:v>
       </x:c>
       <x:c r="CJ15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>4504500</x:v>
       </x:c>
       <x:c r="CK15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>3861000</x:v>
       </x:c>
       <x:c r="CL15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>3861000</x:v>
       </x:c>
       <x:c r="CM15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>3861000</x:v>
       </x:c>
       <x:c r="CN15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>3861000</x:v>
       </x:c>
       <x:c r="CO15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>3861000</x:v>
       </x:c>
       <x:c r="CP15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>3861000</x:v>
       </x:c>
       <x:c r="CQ15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>3861000</x:v>
       </x:c>
       <x:c r="CR15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>3861000</x:v>
       </x:c>
       <x:c r="CS15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>3861000</x:v>
       </x:c>
       <x:c r="CT15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>3861000</x:v>
       </x:c>
       <x:c r="CU15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>3861000</x:v>
       </x:c>
       <x:c r="CV15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>3861000</x:v>
       </x:c>
       <x:c r="CW15" s="5" t="n">
-        <x:v>4826250</x:v>
+        <x:v>3861000</x:v>
       </x:c>
       <x:c r="CX15" s="5" t="n">
-        <x:v>4504500</x:v>
+        <x:v>3861000</x:v>
       </x:c>
       <x:c r="CY15" s="5" t="n">
-        <x:v>4504500</x:v>
+        <x:v>3861000</x:v>
       </x:c>
       <x:c r="CZ15" s="5" t="n">
-        <x:v>4504500</x:v>
+        <x:v>3861000</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:104">
@@ -3931,13 +3931,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D17" s="3" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E17" s="3" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F17" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E17" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F17" s="3" t="s">
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G17" s="3" t="n">
         <x:v>0</x:v>
@@ -3946,28 +3946,28 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="I17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K17" s="3" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="L17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O17" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="P17" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q17" s="3" t="n">
         <x:v>1</x:v>
@@ -3976,22 +3976,22 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="S17" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T17" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U17" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="V17" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="W17" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="X17" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Y17" s="3" t="n">
         <x:v>3</x:v>
@@ -4006,7 +4006,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="AC17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AD17" s="3" t="n">
         <x:v>3</x:v>
@@ -4018,7 +4018,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="AG17" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="AH17" s="3" t="n">
         <x:v>3</x:v>
@@ -4033,25 +4033,25 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="AL17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="AM17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="AN17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="AO17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="AP17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AQ17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="AR17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="AS17" s="3" t="n">
         <x:v>3</x:v>
@@ -4060,13 +4060,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="AU17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AV17" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AW17" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="AX17" s="3" t="n">
         <x:v>3</x:v>
@@ -4083,29 +4083,29 @@
       <x:c r="BB17" s="3" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="BC17" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BD17" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BE17" s="3" t="s">
+      <x:c r="BC17" s="3" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="BD17" s="3" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="BE17" s="3" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="BF17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="BG17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="BH17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="BI17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="BJ17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="BK17" s="3" t="n">
         <x:v>3</x:v>
@@ -4114,10 +4114,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="BM17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="BN17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="BO17" s="3" t="n">
         <x:v>3</x:v>
@@ -4159,19 +4159,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="CB17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="CC17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="CD17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="CE17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="CF17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="CG17" s="3" t="n">
         <x:v>2</x:v>
@@ -4183,55 +4183,55 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="CJ17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="CK17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="CL17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="CM17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="CN17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="CO17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="CP17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="CQ17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="CR17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="CS17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="CT17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="CU17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="CV17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="CW17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="CX17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="CY17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="CZ17" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:104">
@@ -4245,112 +4245,112 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D18" s="5" t="n">
-        <x:v>5687500</x:v>
+        <x:v>7312500</x:v>
       </x:c>
       <x:c r="E18" s="5" t="n">
-        <x:v>4875000</x:v>
+        <x:v>7312500</x:v>
       </x:c>
       <x:c r="F18" s="5" t="n">
-        <x:v>5281250</x:v>
+        <x:v>7312500</x:v>
       </x:c>
       <x:c r="G18" s="5" t="n">
-        <x:v>5687500</x:v>
+        <x:v>7312500</x:v>
       </x:c>
       <x:c r="H18" s="5" t="n">
-        <x:v>5687500</x:v>
+        <x:v>7312500</x:v>
       </x:c>
       <x:c r="I18" s="5" t="n">
-        <x:v>4875000</x:v>
+        <x:v>7312500</x:v>
       </x:c>
       <x:c r="J18" s="5" t="n">
-        <x:v>5687500</x:v>
+        <x:v>6093750</x:v>
       </x:c>
       <x:c r="K18" s="5" t="n">
-        <x:v>5687500</x:v>
+        <x:v>6093750</x:v>
       </x:c>
       <x:c r="L18" s="5" t="n">
-        <x:v>5687500</x:v>
+        <x:v>6093750</x:v>
       </x:c>
       <x:c r="M18" s="5" t="n">
-        <x:v>5687500</x:v>
+        <x:v>6093750</x:v>
       </x:c>
       <x:c r="N18" s="5" t="n">
-        <x:v>5687500</x:v>
+        <x:v>6906250</x:v>
       </x:c>
       <x:c r="O18" s="5" t="n">
-        <x:v>5687500</x:v>
+        <x:v>6093750</x:v>
       </x:c>
       <x:c r="P18" s="5" t="n">
-        <x:v>5687500</x:v>
+        <x:v>6093750</x:v>
       </x:c>
       <x:c r="Q18" s="5" t="n">
-        <x:v>5687500</x:v>
+        <x:v>6093750</x:v>
       </x:c>
       <x:c r="R18" s="5" t="n">
-        <x:v>5687500</x:v>
+        <x:v>6093750</x:v>
       </x:c>
       <x:c r="S18" s="5" t="n">
-        <x:v>5687500</x:v>
+        <x:v>6093750</x:v>
       </x:c>
       <x:c r="T18" s="5" t="n">
-        <x:v>5687500</x:v>
+        <x:v>6093750</x:v>
       </x:c>
       <x:c r="U18" s="5" t="n">
-        <x:v>5687500</x:v>
+        <x:v>6906250</x:v>
       </x:c>
       <x:c r="V18" s="5" t="n">
-        <x:v>5687500</x:v>
+        <x:v>6093750</x:v>
       </x:c>
       <x:c r="W18" s="5" t="n">
-        <x:v>5687500</x:v>
+        <x:v>6093750</x:v>
       </x:c>
       <x:c r="X18" s="5" t="n">
         <x:v>6093750</x:v>
       </x:c>
       <x:c r="Y18" s="5" t="n">
-        <x:v>5687500</x:v>
+        <x:v>6093750</x:v>
       </x:c>
       <x:c r="Z18" s="5" t="n">
-        <x:v>5687500</x:v>
+        <x:v>6093750</x:v>
       </x:c>
       <x:c r="AA18" s="5" t="n">
-        <x:v>5687500</x:v>
+        <x:v>6093750</x:v>
       </x:c>
       <x:c r="AB18" s="5" t="n">
-        <x:v>5687500</x:v>
+        <x:v>6093750</x:v>
       </x:c>
       <x:c r="AC18" s="5" t="n">
         <x:v>6093750</x:v>
       </x:c>
       <x:c r="AD18" s="5" t="n">
+        <x:v>6906250</x:v>
+      </x:c>
+      <x:c r="AE18" s="5" t="n">
         <x:v>6093750</x:v>
       </x:c>
-      <x:c r="AE18" s="5" t="n">
-        <x:v>5687500</x:v>
-      </x:c>
       <x:c r="AF18" s="5" t="n">
-        <x:v>5687500</x:v>
+        <x:v>6093750</x:v>
       </x:c>
       <x:c r="AG18" s="5" t="n">
-        <x:v>5687500</x:v>
+        <x:v>6093750</x:v>
       </x:c>
       <x:c r="AH18" s="5" t="n">
-        <x:v>5687500</x:v>
+        <x:v>6093750</x:v>
       </x:c>
       <x:c r="AI18" s="5" t="n">
-        <x:v>5687500</x:v>
+        <x:v>6093750</x:v>
       </x:c>
       <x:c r="AJ18" s="5" t="n">
-        <x:v>5687500</x:v>
+        <x:v>6093750</x:v>
       </x:c>
       <x:c r="AK18" s="5" t="n">
-        <x:v>5687500</x:v>
+        <x:v>6093750</x:v>
       </x:c>
       <x:c r="AL18" s="5" t="n">
-        <x:v>5687500</x:v>
+        <x:v>6093750</x:v>
       </x:c>
       <x:c r="AM18" s="5" t="n">
-        <x:v>5687500</x:v>
+        <x:v>6093750</x:v>
       </x:c>
       <x:c r="AN18" s="5" t="n">
         <x:v>6093750</x:v>
@@ -4410,142 +4410,142 @@
         <x:v>6093750</x:v>
       </x:c>
       <x:c r="BG18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>5687500</x:v>
       </x:c>
       <x:c r="BH18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>5687500</x:v>
       </x:c>
       <x:c r="BI18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>5687500</x:v>
       </x:c>
       <x:c r="BJ18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>5687500</x:v>
       </x:c>
       <x:c r="BK18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>6906250</x:v>
       </x:c>
       <x:c r="BL18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>6906250</x:v>
       </x:c>
       <x:c r="BM18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>6906250</x:v>
       </x:c>
       <x:c r="BN18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>5687500</x:v>
       </x:c>
       <x:c r="BO18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>5687500</x:v>
       </x:c>
       <x:c r="BP18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>5687500</x:v>
       </x:c>
       <x:c r="BQ18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>5687500</x:v>
       </x:c>
       <x:c r="BR18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>6906250</x:v>
       </x:c>
       <x:c r="BS18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>5687500</x:v>
       </x:c>
       <x:c r="BT18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>5687500</x:v>
       </x:c>
       <x:c r="BU18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>5687500</x:v>
       </x:c>
       <x:c r="BV18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>5687500</x:v>
       </x:c>
       <x:c r="BW18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>5687500</x:v>
       </x:c>
       <x:c r="BX18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>5687500</x:v>
       </x:c>
       <x:c r="BY18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>5687500</x:v>
       </x:c>
       <x:c r="BZ18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>5687500</x:v>
       </x:c>
       <x:c r="CA18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>5687500</x:v>
       </x:c>
       <x:c r="CB18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>5687500</x:v>
       </x:c>
       <x:c r="CC18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>5687500</x:v>
       </x:c>
       <x:c r="CD18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>5687500</x:v>
       </x:c>
       <x:c r="CE18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>5687500</x:v>
       </x:c>
       <x:c r="CF18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>5687500</x:v>
       </x:c>
       <x:c r="CG18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>5687500</x:v>
       </x:c>
       <x:c r="CH18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>5687500</x:v>
       </x:c>
       <x:c r="CI18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>5687500</x:v>
       </x:c>
       <x:c r="CJ18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>5687500</x:v>
       </x:c>
       <x:c r="CK18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>4875000</x:v>
       </x:c>
       <x:c r="CL18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>4875000</x:v>
       </x:c>
       <x:c r="CM18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>4875000</x:v>
       </x:c>
       <x:c r="CN18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>4875000</x:v>
       </x:c>
       <x:c r="CO18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>4875000</x:v>
       </x:c>
       <x:c r="CP18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>4875000</x:v>
       </x:c>
       <x:c r="CQ18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>4875000</x:v>
       </x:c>
       <x:c r="CR18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>4875000</x:v>
       </x:c>
       <x:c r="CS18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>4875000</x:v>
       </x:c>
       <x:c r="CT18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>4875000</x:v>
       </x:c>
       <x:c r="CU18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>4875000</x:v>
       </x:c>
       <x:c r="CV18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>4875000</x:v>
       </x:c>
       <x:c r="CW18" s="5" t="n">
-        <x:v>6093750</x:v>
+        <x:v>4875000</x:v>
       </x:c>
       <x:c r="CX18" s="5" t="n">
-        <x:v>5687500</x:v>
+        <x:v>4875000</x:v>
       </x:c>
       <x:c r="CY18" s="5" t="n">
-        <x:v>5687500</x:v>
+        <x:v>4875000</x:v>
       </x:c>
       <x:c r="CZ18" s="5" t="n">
-        <x:v>5687500</x:v>
+        <x:v>4875000</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:104">
@@ -4556,88 +4556,88 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D20" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E20" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F20" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G20" s="3" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H20" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I20" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H20" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="I20" s="3" t="s">
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J20" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K20" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L20" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M20" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="N20" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O20" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P20" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q20" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R20" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S20" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T20" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U20" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V20" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="W20" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="X20" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Y20" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Z20" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AA20" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AB20" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AC20" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AD20" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AE20" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AF20" s="3" t="n">
         <x:v>3</x:v>
@@ -4661,19 +4661,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="AM20" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="AN20" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="AO20" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="AP20" s="3" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="AQ20" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="AR20" s="3" t="n">
         <x:v>3</x:v>
@@ -4682,39 +4682,39 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="AT20" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="AU20" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="AV20" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="AW20" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="AX20" s="3" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="AY20" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="AZ20" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="BA20" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="BB20" s="3" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="BC20" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BD20" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BE20" s="3" t="s">
+      <x:c r="BC20" s="3" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="BD20" s="3" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="BE20" s="3" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="BF20" s="3" t="n">
@@ -4724,13 +4724,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="BH20" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="BI20" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="BJ20" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="BK20" s="3" t="n">
         <x:v>3</x:v>
@@ -4739,7 +4739,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="BM20" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="BN20" s="3" t="n">
         <x:v>3</x:v>
@@ -4870,112 +4870,112 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D21" s="5" t="n">
-        <x:v>6051500</x:v>
+        <x:v>7780500</x:v>
       </x:c>
       <x:c r="E21" s="5" t="n">
-        <x:v>5187000</x:v>
+        <x:v>7780500</x:v>
       </x:c>
       <x:c r="F21" s="5" t="n">
-        <x:v>5619250</x:v>
+        <x:v>7780500</x:v>
       </x:c>
       <x:c r="G21" s="5" t="n">
-        <x:v>6051500</x:v>
+        <x:v>7780500</x:v>
       </x:c>
       <x:c r="H21" s="5" t="n">
-        <x:v>6051500</x:v>
+        <x:v>7780500</x:v>
       </x:c>
       <x:c r="I21" s="5" t="n">
-        <x:v>5187000</x:v>
+        <x:v>7780500</x:v>
       </x:c>
       <x:c r="J21" s="5" t="n">
-        <x:v>6051500</x:v>
+        <x:v>6483750</x:v>
       </x:c>
       <x:c r="K21" s="5" t="n">
-        <x:v>6051500</x:v>
+        <x:v>6483750</x:v>
       </x:c>
       <x:c r="L21" s="5" t="n">
-        <x:v>6051500</x:v>
+        <x:v>6483750</x:v>
       </x:c>
       <x:c r="M21" s="5" t="n">
-        <x:v>6051500</x:v>
+        <x:v>6483750</x:v>
       </x:c>
       <x:c r="N21" s="5" t="n">
-        <x:v>6051500</x:v>
+        <x:v>7348250</x:v>
       </x:c>
       <x:c r="O21" s="5" t="n">
-        <x:v>6051500</x:v>
+        <x:v>6483750</x:v>
       </x:c>
       <x:c r="P21" s="5" t="n">
-        <x:v>6051500</x:v>
+        <x:v>6483750</x:v>
       </x:c>
       <x:c r="Q21" s="5" t="n">
-        <x:v>6051500</x:v>
+        <x:v>6483750</x:v>
       </x:c>
       <x:c r="R21" s="5" t="n">
-        <x:v>6051500</x:v>
+        <x:v>6483750</x:v>
       </x:c>
       <x:c r="S21" s="5" t="n">
-        <x:v>6051500</x:v>
+        <x:v>6483750</x:v>
       </x:c>
       <x:c r="T21" s="5" t="n">
-        <x:v>6051500</x:v>
+        <x:v>6483750</x:v>
       </x:c>
       <x:c r="U21" s="5" t="n">
-        <x:v>6051500</x:v>
+        <x:v>7348250</x:v>
       </x:c>
       <x:c r="V21" s="5" t="n">
-        <x:v>6051500</x:v>
+        <x:v>6483750</x:v>
       </x:c>
       <x:c r="W21" s="5" t="n">
-        <x:v>6051500</x:v>
+        <x:v>6483750</x:v>
       </x:c>
       <x:c r="X21" s="5" t="n">
         <x:v>6483750</x:v>
       </x:c>
       <x:c r="Y21" s="5" t="n">
-        <x:v>6051500</x:v>
+        <x:v>6483750</x:v>
       </x:c>
       <x:c r="Z21" s="5" t="n">
-        <x:v>6051500</x:v>
+        <x:v>6483750</x:v>
       </x:c>
       <x:c r="AA21" s="5" t="n">
-        <x:v>6051500</x:v>
+        <x:v>6483750</x:v>
       </x:c>
       <x:c r="AB21" s="5" t="n">
-        <x:v>6051500</x:v>
+        <x:v>6483750</x:v>
       </x:c>
       <x:c r="AC21" s="5" t="n">
         <x:v>6483750</x:v>
       </x:c>
       <x:c r="AD21" s="5" t="n">
+        <x:v>7348250</x:v>
+      </x:c>
+      <x:c r="AE21" s="5" t="n">
         <x:v>6483750</x:v>
       </x:c>
-      <x:c r="AE21" s="5" t="n">
-        <x:v>6051500</x:v>
-      </x:c>
       <x:c r="AF21" s="5" t="n">
-        <x:v>6051500</x:v>
+        <x:v>6483750</x:v>
       </x:c>
       <x:c r="AG21" s="5" t="n">
-        <x:v>6051500</x:v>
+        <x:v>6483750</x:v>
       </x:c>
       <x:c r="AH21" s="5" t="n">
-        <x:v>6051500</x:v>
+        <x:v>6483750</x:v>
       </x:c>
       <x:c r="AI21" s="5" t="n">
-        <x:v>6051500</x:v>
+        <x:v>6483750</x:v>
       </x:c>
       <x:c r="AJ21" s="5" t="n">
-        <x:v>6051500</x:v>
+        <x:v>6483750</x:v>
       </x:c>
       <x:c r="AK21" s="5" t="n">
-        <x:v>6051500</x:v>
+        <x:v>6483750</x:v>
       </x:c>
       <x:c r="AL21" s="5" t="n">
-        <x:v>6051500</x:v>
+        <x:v>6483750</x:v>
       </x:c>
       <x:c r="AM21" s="5" t="n">
-        <x:v>6051500</x:v>
+        <x:v>6483750</x:v>
       </x:c>
       <x:c r="AN21" s="5" t="n">
         <x:v>6483750</x:v>
@@ -5035,142 +5035,142 @@
         <x:v>6483750</x:v>
       </x:c>
       <x:c r="BG21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>6051500</x:v>
       </x:c>
       <x:c r="BH21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>6051500</x:v>
       </x:c>
       <x:c r="BI21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>6051500</x:v>
       </x:c>
       <x:c r="BJ21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>6051500</x:v>
       </x:c>
       <x:c r="BK21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>7348250</x:v>
       </x:c>
       <x:c r="BL21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>7348250</x:v>
       </x:c>
       <x:c r="BM21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>7348250</x:v>
       </x:c>
       <x:c r="BN21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>6051500</x:v>
       </x:c>
       <x:c r="BO21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>6051500</x:v>
       </x:c>
       <x:c r="BP21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>6051500</x:v>
       </x:c>
       <x:c r="BQ21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>6051500</x:v>
       </x:c>
       <x:c r="BR21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>7348250</x:v>
       </x:c>
       <x:c r="BS21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>6051500</x:v>
       </x:c>
       <x:c r="BT21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>6051500</x:v>
       </x:c>
       <x:c r="BU21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>6051500</x:v>
       </x:c>
       <x:c r="BV21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>6051500</x:v>
       </x:c>
       <x:c r="BW21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>6051500</x:v>
       </x:c>
       <x:c r="BX21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>6051500</x:v>
       </x:c>
       <x:c r="BY21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>6051500</x:v>
       </x:c>
       <x:c r="BZ21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>6051500</x:v>
       </x:c>
       <x:c r="CA21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>6051500</x:v>
       </x:c>
       <x:c r="CB21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>6051500</x:v>
       </x:c>
       <x:c r="CC21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>6051500</x:v>
       </x:c>
       <x:c r="CD21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>6051500</x:v>
       </x:c>
       <x:c r="CE21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>6051500</x:v>
       </x:c>
       <x:c r="CF21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>6051500</x:v>
       </x:c>
       <x:c r="CG21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>6051500</x:v>
       </x:c>
       <x:c r="CH21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>6051500</x:v>
       </x:c>
       <x:c r="CI21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>6051500</x:v>
       </x:c>
       <x:c r="CJ21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>6051500</x:v>
       </x:c>
       <x:c r="CK21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>5187000</x:v>
       </x:c>
       <x:c r="CL21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>5187000</x:v>
       </x:c>
       <x:c r="CM21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>5187000</x:v>
       </x:c>
       <x:c r="CN21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>5187000</x:v>
       </x:c>
       <x:c r="CO21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>5187000</x:v>
       </x:c>
       <x:c r="CP21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>5187000</x:v>
       </x:c>
       <x:c r="CQ21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>5187000</x:v>
       </x:c>
       <x:c r="CR21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>5187000</x:v>
       </x:c>
       <x:c r="CS21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>5187000</x:v>
       </x:c>
       <x:c r="CT21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>5187000</x:v>
       </x:c>
       <x:c r="CU21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>5187000</x:v>
       </x:c>
       <x:c r="CV21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>5187000</x:v>
       </x:c>
       <x:c r="CW21" s="5" t="n">
-        <x:v>6483750</x:v>
+        <x:v>5187000</x:v>
       </x:c>
       <x:c r="CX21" s="5" t="n">
-        <x:v>6051500</x:v>
+        <x:v>5187000</x:v>
       </x:c>
       <x:c r="CY21" s="5" t="n">
-        <x:v>6051500</x:v>
+        <x:v>5187000</x:v>
       </x:c>
       <x:c r="CZ21" s="5" t="n">
-        <x:v>6051500</x:v>
+        <x:v>5187000</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:104">
@@ -5181,19 +5181,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D23" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E23" s="3" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="F23" s="3" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G23" s="3" t="n">
-        <x:v>2</x:v>
+      <x:c r="F23" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G23" s="3" t="s">
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H23" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I23" s="3" t="n">
         <x:v>2</x:v>
@@ -5333,14 +5333,14 @@
       <x:c r="BB23" s="3" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="BC23" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BD23" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BE23" s="3" t="s">
-        <x:v>3</x:v>
+      <x:c r="BC23" s="3" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="BD23" s="3" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="BE23" s="3" t="n">
+        <x:v>2</x:v>
       </x:c>
       <x:c r="BF23" s="3" t="n">
         <x:v>2</x:v>
@@ -5364,7 +5364,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="BM23" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BN23" s="3" t="n">
         <x:v>2</x:v>
@@ -5495,112 +5495,112 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D24" s="5" t="n">
-        <x:v>7575750</x:v>
+        <x:v>9740250</x:v>
       </x:c>
       <x:c r="E24" s="5" t="n">
-        <x:v>6493500</x:v>
+        <x:v>9740250</x:v>
       </x:c>
       <x:c r="F24" s="5" t="n">
-        <x:v>7034625</x:v>
+        <x:v>9740250</x:v>
       </x:c>
       <x:c r="G24" s="5" t="n">
-        <x:v>7575750</x:v>
+        <x:v>9740250</x:v>
       </x:c>
       <x:c r="H24" s="5" t="n">
-        <x:v>7575750</x:v>
+        <x:v>9740250</x:v>
       </x:c>
       <x:c r="I24" s="5" t="n">
-        <x:v>6493500</x:v>
+        <x:v>9740250</x:v>
       </x:c>
       <x:c r="J24" s="5" t="n">
-        <x:v>7575750</x:v>
+        <x:v>8116875</x:v>
       </x:c>
       <x:c r="K24" s="5" t="n">
-        <x:v>7575750</x:v>
+        <x:v>8116875</x:v>
       </x:c>
       <x:c r="L24" s="5" t="n">
-        <x:v>7575750</x:v>
+        <x:v>8116875</x:v>
       </x:c>
       <x:c r="M24" s="5" t="n">
-        <x:v>7575750</x:v>
+        <x:v>8116875</x:v>
       </x:c>
       <x:c r="N24" s="5" t="n">
-        <x:v>7575750</x:v>
+        <x:v>9199125</x:v>
       </x:c>
       <x:c r="O24" s="5" t="n">
-        <x:v>7575750</x:v>
+        <x:v>8116875</x:v>
       </x:c>
       <x:c r="P24" s="5" t="n">
-        <x:v>7575750</x:v>
+        <x:v>8116875</x:v>
       </x:c>
       <x:c r="Q24" s="5" t="n">
-        <x:v>7575750</x:v>
+        <x:v>8116875</x:v>
       </x:c>
       <x:c r="R24" s="5" t="n">
-        <x:v>7575750</x:v>
+        <x:v>8116875</x:v>
       </x:c>
       <x:c r="S24" s="5" t="n">
-        <x:v>7575750</x:v>
+        <x:v>8116875</x:v>
       </x:c>
       <x:c r="T24" s="5" t="n">
-        <x:v>7575750</x:v>
+        <x:v>8116875</x:v>
       </x:c>
       <x:c r="U24" s="5" t="n">
-        <x:v>7575750</x:v>
+        <x:v>9199125</x:v>
       </x:c>
       <x:c r="V24" s="5" t="n">
-        <x:v>7575750</x:v>
+        <x:v>8116875</x:v>
       </x:c>
       <x:c r="W24" s="5" t="n">
-        <x:v>7575750</x:v>
+        <x:v>8116875</x:v>
       </x:c>
       <x:c r="X24" s="5" t="n">
         <x:v>8116875</x:v>
       </x:c>
       <x:c r="Y24" s="5" t="n">
-        <x:v>7575750</x:v>
+        <x:v>8116875</x:v>
       </x:c>
       <x:c r="Z24" s="5" t="n">
-        <x:v>7575750</x:v>
+        <x:v>8116875</x:v>
       </x:c>
       <x:c r="AA24" s="5" t="n">
-        <x:v>7575750</x:v>
+        <x:v>8116875</x:v>
       </x:c>
       <x:c r="AB24" s="5" t="n">
-        <x:v>7575750</x:v>
+        <x:v>8116875</x:v>
       </x:c>
       <x:c r="AC24" s="5" t="n">
         <x:v>8116875</x:v>
       </x:c>
       <x:c r="AD24" s="5" t="n">
+        <x:v>9199125</x:v>
+      </x:c>
+      <x:c r="AE24" s="5" t="n">
         <x:v>8116875</x:v>
       </x:c>
-      <x:c r="AE24" s="5" t="n">
-        <x:v>7575750</x:v>
-      </x:c>
       <x:c r="AF24" s="5" t="n">
-        <x:v>7575750</x:v>
+        <x:v>8116875</x:v>
       </x:c>
       <x:c r="AG24" s="5" t="n">
-        <x:v>7575750</x:v>
+        <x:v>8116875</x:v>
       </x:c>
       <x:c r="AH24" s="5" t="n">
-        <x:v>7575750</x:v>
+        <x:v>8116875</x:v>
       </x:c>
       <x:c r="AI24" s="5" t="n">
-        <x:v>7575750</x:v>
+        <x:v>8116875</x:v>
       </x:c>
       <x:c r="AJ24" s="5" t="n">
-        <x:v>7575750</x:v>
+        <x:v>8116875</x:v>
       </x:c>
       <x:c r="AK24" s="5" t="n">
-        <x:v>7575750</x:v>
+        <x:v>8116875</x:v>
       </x:c>
       <x:c r="AL24" s="5" t="n">
-        <x:v>7575750</x:v>
+        <x:v>8116875</x:v>
       </x:c>
       <x:c r="AM24" s="5" t="n">
-        <x:v>7575750</x:v>
+        <x:v>8116875</x:v>
       </x:c>
       <x:c r="AN24" s="5" t="n">
         <x:v>8116875</x:v>
@@ -5660,142 +5660,142 @@
         <x:v>8116875</x:v>
       </x:c>
       <x:c r="BG24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>7575750</x:v>
       </x:c>
       <x:c r="BH24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>7575750</x:v>
       </x:c>
       <x:c r="BI24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>7575750</x:v>
       </x:c>
       <x:c r="BJ24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>7575750</x:v>
       </x:c>
       <x:c r="BK24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>9199125</x:v>
       </x:c>
       <x:c r="BL24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>9199125</x:v>
       </x:c>
       <x:c r="BM24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>9199125</x:v>
       </x:c>
       <x:c r="BN24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>7575750</x:v>
       </x:c>
       <x:c r="BO24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>7575750</x:v>
       </x:c>
       <x:c r="BP24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>7575750</x:v>
       </x:c>
       <x:c r="BQ24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>7575750</x:v>
       </x:c>
       <x:c r="BR24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>9199125</x:v>
       </x:c>
       <x:c r="BS24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>7575750</x:v>
       </x:c>
       <x:c r="BT24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>7575750</x:v>
       </x:c>
       <x:c r="BU24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>7575750</x:v>
       </x:c>
       <x:c r="BV24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>7575750</x:v>
       </x:c>
       <x:c r="BW24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>7575750</x:v>
       </x:c>
       <x:c r="BX24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>7575750</x:v>
       </x:c>
       <x:c r="BY24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>7575750</x:v>
       </x:c>
       <x:c r="BZ24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>7575750</x:v>
       </x:c>
       <x:c r="CA24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>7575750</x:v>
       </x:c>
       <x:c r="CB24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>7575750</x:v>
       </x:c>
       <x:c r="CC24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>7575750</x:v>
       </x:c>
       <x:c r="CD24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>7575750</x:v>
       </x:c>
       <x:c r="CE24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>7575750</x:v>
       </x:c>
       <x:c r="CF24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>7575750</x:v>
       </x:c>
       <x:c r="CG24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>7575750</x:v>
       </x:c>
       <x:c r="CH24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>7575750</x:v>
       </x:c>
       <x:c r="CI24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>7575750</x:v>
       </x:c>
       <x:c r="CJ24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>7575750</x:v>
       </x:c>
       <x:c r="CK24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>6493500</x:v>
       </x:c>
       <x:c r="CL24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>6493500</x:v>
       </x:c>
       <x:c r="CM24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>6493500</x:v>
       </x:c>
       <x:c r="CN24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>6493500</x:v>
       </x:c>
       <x:c r="CO24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>6493500</x:v>
       </x:c>
       <x:c r="CP24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>6493500</x:v>
       </x:c>
       <x:c r="CQ24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>6493500</x:v>
       </x:c>
       <x:c r="CR24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>6493500</x:v>
       </x:c>
       <x:c r="CS24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>6493500</x:v>
       </x:c>
       <x:c r="CT24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>6493500</x:v>
       </x:c>
       <x:c r="CU24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>6493500</x:v>
       </x:c>
       <x:c r="CV24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>6493500</x:v>
       </x:c>
       <x:c r="CW24" s="5" t="n">
-        <x:v>8116875</x:v>
+        <x:v>6493500</x:v>
       </x:c>
       <x:c r="CX24" s="5" t="n">
-        <x:v>7575750</x:v>
+        <x:v>6493500</x:v>
       </x:c>
       <x:c r="CY24" s="5" t="n">
-        <x:v>7575750</x:v>
+        <x:v>6493500</x:v>
       </x:c>
       <x:c r="CZ24" s="5" t="n">
-        <x:v>7575750</x:v>
+        <x:v>6493500</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:104">
@@ -5806,22 +5806,22 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D26" s="3" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E26" s="3" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="F26" s="3" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G26" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H26" s="3" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="I26" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J26" s="3" t="n">
         <x:v>3</x:v>
@@ -5830,40 +5830,40 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="L26" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M26" s="3" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="N26" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="O26" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="P26" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="Q26" s="3" t="s">
-        <x:v>3</x:v>
+      <x:c r="N26" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O26" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P26" s="3" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="Q26" s="3" t="n">
+        <x:v>2</x:v>
       </x:c>
       <x:c r="R26" s="3" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="S26" s="3" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T26" s="3" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U26" s="3" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="V26" s="3" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="W26" s="3" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="X26" s="3" t="n">
         <x:v>4</x:v>
@@ -5872,46 +5872,46 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="Z26" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="AA26" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="AB26" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="AC26" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="AD26" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="AE26" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="AF26" s="3" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="AG26" s="3" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="AH26" s="3" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="AI26" s="3" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="AJ26" s="3" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="AK26" s="3" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="AL26" s="3" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="AM26" s="3" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="AN26" s="3" t="n">
         <x:v>4</x:v>
@@ -5956,16 +5956,16 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="BB26" s="3" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="BC26" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BD26" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BE26" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="BC26" s="3" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="BD26" s="3" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="BE26" s="3" t="n">
+        <x:v>4</x:v>
       </x:c>
       <x:c r="BF26" s="3" t="n">
         <x:v>4</x:v>
@@ -5989,7 +5989,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="BM26" s="3" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BN26" s="3" t="n">
         <x:v>4</x:v>
@@ -5998,7 +5998,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="BP26" s="3" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="BQ26" s="3" t="n">
         <x:v>4</x:v>
@@ -6064,7 +6064,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="CL26" s="3" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="CM26" s="3" t="n">
         <x:v>4</x:v>
@@ -6085,22 +6085,22 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="CS26" s="3" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="CT26" s="3" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="CU26" s="3" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="CV26" s="3" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="CW26" s="3" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="CX26" s="3" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="CY26" s="3" t="n">
         <x:v>4</x:v>
@@ -6120,112 +6120,112 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D27" s="5" t="n">
-        <x:v>8554000</x:v>
+        <x:v>10998000</x:v>
       </x:c>
       <x:c r="E27" s="5" t="n">
-        <x:v>7332000</x:v>
+        <x:v>10998000</x:v>
       </x:c>
       <x:c r="F27" s="5" t="n">
-        <x:v>7943000</x:v>
+        <x:v>10998000</x:v>
       </x:c>
       <x:c r="G27" s="5" t="n">
-        <x:v>8554000</x:v>
+        <x:v>10998000</x:v>
       </x:c>
       <x:c r="H27" s="5" t="n">
-        <x:v>8554000</x:v>
+        <x:v>10998000</x:v>
       </x:c>
       <x:c r="I27" s="5" t="n">
-        <x:v>7332000</x:v>
+        <x:v>10998000</x:v>
       </x:c>
       <x:c r="J27" s="5" t="n">
-        <x:v>8554000</x:v>
+        <x:v>9165000</x:v>
       </x:c>
       <x:c r="K27" s="5" t="n">
-        <x:v>8554000</x:v>
+        <x:v>9165000</x:v>
       </x:c>
       <x:c r="L27" s="5" t="n">
-        <x:v>8554000</x:v>
+        <x:v>9165000</x:v>
       </x:c>
       <x:c r="M27" s="5" t="n">
-        <x:v>8554000</x:v>
+        <x:v>9165000</x:v>
       </x:c>
       <x:c r="N27" s="5" t="n">
-        <x:v>8554000</x:v>
+        <x:v>10387000</x:v>
       </x:c>
       <x:c r="O27" s="5" t="n">
-        <x:v>8554000</x:v>
+        <x:v>9165000</x:v>
       </x:c>
       <x:c r="P27" s="5" t="n">
-        <x:v>8554000</x:v>
+        <x:v>9165000</x:v>
       </x:c>
       <x:c r="Q27" s="5" t="n">
-        <x:v>8554000</x:v>
+        <x:v>9165000</x:v>
       </x:c>
       <x:c r="R27" s="5" t="n">
-        <x:v>8554000</x:v>
+        <x:v>9165000</x:v>
       </x:c>
       <x:c r="S27" s="5" t="n">
-        <x:v>8554000</x:v>
+        <x:v>9165000</x:v>
       </x:c>
       <x:c r="T27" s="5" t="n">
-        <x:v>8554000</x:v>
+        <x:v>9165000</x:v>
       </x:c>
       <x:c r="U27" s="5" t="n">
-        <x:v>8554000</x:v>
+        <x:v>10387000</x:v>
       </x:c>
       <x:c r="V27" s="5" t="n">
-        <x:v>8554000</x:v>
+        <x:v>9165000</x:v>
       </x:c>
       <x:c r="W27" s="5" t="n">
-        <x:v>8554000</x:v>
+        <x:v>9165000</x:v>
       </x:c>
       <x:c r="X27" s="5" t="n">
         <x:v>9165000</x:v>
       </x:c>
       <x:c r="Y27" s="5" t="n">
-        <x:v>8554000</x:v>
+        <x:v>9165000</x:v>
       </x:c>
       <x:c r="Z27" s="5" t="n">
-        <x:v>8554000</x:v>
+        <x:v>9165000</x:v>
       </x:c>
       <x:c r="AA27" s="5" t="n">
-        <x:v>8554000</x:v>
+        <x:v>9165000</x:v>
       </x:c>
       <x:c r="AB27" s="5" t="n">
-        <x:v>8554000</x:v>
+        <x:v>9165000</x:v>
       </x:c>
       <x:c r="AC27" s="5" t="n">
         <x:v>9165000</x:v>
       </x:c>
       <x:c r="AD27" s="5" t="n">
+        <x:v>10387000</x:v>
+      </x:c>
+      <x:c r="AE27" s="5" t="n">
         <x:v>9165000</x:v>
       </x:c>
-      <x:c r="AE27" s="5" t="n">
-        <x:v>8554000</x:v>
-      </x:c>
       <x:c r="AF27" s="5" t="n">
-        <x:v>8554000</x:v>
+        <x:v>9165000</x:v>
       </x:c>
       <x:c r="AG27" s="5" t="n">
-        <x:v>8554000</x:v>
+        <x:v>9165000</x:v>
       </x:c>
       <x:c r="AH27" s="5" t="n">
-        <x:v>8554000</x:v>
+        <x:v>9165000</x:v>
       </x:c>
       <x:c r="AI27" s="5" t="n">
-        <x:v>8554000</x:v>
+        <x:v>9165000</x:v>
       </x:c>
       <x:c r="AJ27" s="5" t="n">
-        <x:v>8554000</x:v>
+        <x:v>9165000</x:v>
       </x:c>
       <x:c r="AK27" s="5" t="n">
-        <x:v>8554000</x:v>
+        <x:v>9165000</x:v>
       </x:c>
       <x:c r="AL27" s="5" t="n">
-        <x:v>8554000</x:v>
+        <x:v>9165000</x:v>
       </x:c>
       <x:c r="AM27" s="5" t="n">
-        <x:v>8554000</x:v>
+        <x:v>9165000</x:v>
       </x:c>
       <x:c r="AN27" s="5" t="n">
         <x:v>9165000</x:v>
@@ -6285,142 +6285,142 @@
         <x:v>9165000</x:v>
       </x:c>
       <x:c r="BG27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>8554000</x:v>
       </x:c>
       <x:c r="BH27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>8554000</x:v>
       </x:c>
       <x:c r="BI27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>8554000</x:v>
       </x:c>
       <x:c r="BJ27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>8554000</x:v>
       </x:c>
       <x:c r="BK27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>10387000</x:v>
       </x:c>
       <x:c r="BL27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>10387000</x:v>
       </x:c>
       <x:c r="BM27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>10387000</x:v>
       </x:c>
       <x:c r="BN27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>8554000</x:v>
       </x:c>
       <x:c r="BO27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>8554000</x:v>
       </x:c>
       <x:c r="BP27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>8554000</x:v>
       </x:c>
       <x:c r="BQ27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>8554000</x:v>
       </x:c>
       <x:c r="BR27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>10387000</x:v>
       </x:c>
       <x:c r="BS27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>8554000</x:v>
       </x:c>
       <x:c r="BT27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>8554000</x:v>
       </x:c>
       <x:c r="BU27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>8554000</x:v>
       </x:c>
       <x:c r="BV27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>8554000</x:v>
       </x:c>
       <x:c r="BW27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>8554000</x:v>
       </x:c>
       <x:c r="BX27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>8554000</x:v>
       </x:c>
       <x:c r="BY27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>8554000</x:v>
       </x:c>
       <x:c r="BZ27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>8554000</x:v>
       </x:c>
       <x:c r="CA27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>8554000</x:v>
       </x:c>
       <x:c r="CB27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>8554000</x:v>
       </x:c>
       <x:c r="CC27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>8554000</x:v>
       </x:c>
       <x:c r="CD27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>8554000</x:v>
       </x:c>
       <x:c r="CE27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>8554000</x:v>
       </x:c>
       <x:c r="CF27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>8554000</x:v>
       </x:c>
       <x:c r="CG27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>8554000</x:v>
       </x:c>
       <x:c r="CH27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>8554000</x:v>
       </x:c>
       <x:c r="CI27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>8554000</x:v>
       </x:c>
       <x:c r="CJ27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>8554000</x:v>
       </x:c>
       <x:c r="CK27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>7332000</x:v>
       </x:c>
       <x:c r="CL27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>7332000</x:v>
       </x:c>
       <x:c r="CM27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>7332000</x:v>
       </x:c>
       <x:c r="CN27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>7332000</x:v>
       </x:c>
       <x:c r="CO27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>7332000</x:v>
       </x:c>
       <x:c r="CP27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>7332000</x:v>
       </x:c>
       <x:c r="CQ27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>7332000</x:v>
       </x:c>
       <x:c r="CR27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>7332000</x:v>
       </x:c>
       <x:c r="CS27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>7332000</x:v>
       </x:c>
       <x:c r="CT27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>7332000</x:v>
       </x:c>
       <x:c r="CU27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>7332000</x:v>
       </x:c>
       <x:c r="CV27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>7332000</x:v>
       </x:c>
       <x:c r="CW27" s="5" t="n">
-        <x:v>9165000</x:v>
+        <x:v>7332000</x:v>
       </x:c>
       <x:c r="CX27" s="5" t="n">
-        <x:v>8554000</x:v>
+        <x:v>7332000</x:v>
       </x:c>
       <x:c r="CY27" s="5" t="n">
-        <x:v>8554000</x:v>
+        <x:v>7332000</x:v>
       </x:c>
       <x:c r="CZ27" s="5" t="n">
-        <x:v>8554000</x:v>
+        <x:v>7332000</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:104">
@@ -6431,22 +6431,22 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D29" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E29" s="3" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="F29" s="3" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G29" s="3" t="n">
-        <x:v>2</x:v>
+      <x:c r="F29" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G29" s="3" t="s">
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H29" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I29" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J29" s="3" t="n">
         <x:v>2</x:v>
@@ -6455,22 +6455,22 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="L29" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M29" s="3" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="N29" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="O29" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="P29" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="Q29" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N29" s="3" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="O29" s="3" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="P29" s="3" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="Q29" s="3" t="n">
+        <x:v>2</x:v>
       </x:c>
       <x:c r="R29" s="3" t="n">
         <x:v>2</x:v>
@@ -6482,10 +6482,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="U29" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="V29" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="W29" s="3" t="n">
         <x:v>2</x:v>
@@ -6583,14 +6583,14 @@
       <x:c r="BB29" s="3" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="BC29" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BD29" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BE29" s="3" t="s">
-        <x:v>3</x:v>
+      <x:c r="BC29" s="3" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="BD29" s="3" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="BE29" s="3" t="n">
+        <x:v>2</x:v>
       </x:c>
       <x:c r="BF29" s="3" t="n">
         <x:v>2</x:v>
@@ -6614,7 +6614,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="BM29" s="3" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BN29" s="3" t="n">
         <x:v>2</x:v>
@@ -6745,112 +6745,112 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D30" s="5" t="n">
-        <x:v>8235500</x:v>
+        <x:v>10588500</x:v>
       </x:c>
       <x:c r="E30" s="5" t="n">
-        <x:v>7059000</x:v>
+        <x:v>10588500</x:v>
       </x:c>
       <x:c r="F30" s="5" t="n">
-        <x:v>7647250</x:v>
+        <x:v>10588500</x:v>
       </x:c>
       <x:c r="G30" s="5" t="n">
-        <x:v>8235500</x:v>
+        <x:v>10588500</x:v>
       </x:c>
       <x:c r="H30" s="5" t="n">
-        <x:v>8235500</x:v>
+        <x:v>10588500</x:v>
       </x:c>
       <x:c r="I30" s="5" t="n">
-        <x:v>7059000</x:v>
+        <x:v>10588500</x:v>
       </x:c>
       <x:c r="J30" s="5" t="n">
-        <x:v>8235500</x:v>
+        <x:v>8823750</x:v>
       </x:c>
       <x:c r="K30" s="5" t="n">
-        <x:v>8235500</x:v>
+        <x:v>8823750</x:v>
       </x:c>
       <x:c r="L30" s="5" t="n">
-        <x:v>8235500</x:v>
+        <x:v>8823750</x:v>
       </x:c>
       <x:c r="M30" s="5" t="n">
-        <x:v>8235500</x:v>
+        <x:v>8823750</x:v>
       </x:c>
       <x:c r="N30" s="5" t="n">
-        <x:v>8235500</x:v>
+        <x:v>10000250</x:v>
       </x:c>
       <x:c r="O30" s="5" t="n">
-        <x:v>8235500</x:v>
+        <x:v>8823750</x:v>
       </x:c>
       <x:c r="P30" s="5" t="n">
-        <x:v>8235500</x:v>
+        <x:v>8823750</x:v>
       </x:c>
       <x:c r="Q30" s="5" t="n">
-        <x:v>8235500</x:v>
+        <x:v>8823750</x:v>
       </x:c>
       <x:c r="R30" s="5" t="n">
-        <x:v>8235500</x:v>
+        <x:v>8823750</x:v>
       </x:c>
       <x:c r="S30" s="5" t="n">
-        <x:v>8235500</x:v>
+        <x:v>8823750</x:v>
       </x:c>
       <x:c r="T30" s="5" t="n">
-        <x:v>8235500</x:v>
+        <x:v>8823750</x:v>
       </x:c>
       <x:c r="U30" s="5" t="n">
-        <x:v>8235500</x:v>
+        <x:v>10000250</x:v>
       </x:c>
       <x:c r="V30" s="5" t="n">
-        <x:v>8235500</x:v>
+        <x:v>8823750</x:v>
       </x:c>
       <x:c r="W30" s="5" t="n">
-        <x:v>8235500</x:v>
+        <x:v>8823750</x:v>
       </x:c>
       <x:c r="X30" s="5" t="n">
         <x:v>8823750</x:v>
       </x:c>
       <x:c r="Y30" s="5" t="n">
-        <x:v>8235500</x:v>
+        <x:v>8823750</x:v>
       </x:c>
       <x:c r="Z30" s="5" t="n">
-        <x:v>8235500</x:v>
+        <x:v>8823750</x:v>
       </x:c>
       <x:c r="AA30" s="5" t="n">
-        <x:v>8235500</x:v>
+        <x:v>8823750</x:v>
       </x:c>
       <x:c r="AB30" s="5" t="n">
-        <x:v>8235500</x:v>
+        <x:v>8823750</x:v>
       </x:c>
       <x:c r="AC30" s="5" t="n">
         <x:v>8823750</x:v>
       </x:c>
       <x:c r="AD30" s="5" t="n">
+        <x:v>10000250</x:v>
+      </x:c>
+      <x:c r="AE30" s="5" t="n">
         <x:v>8823750</x:v>
       </x:c>
-      <x:c r="AE30" s="5" t="n">
-        <x:v>8235500</x:v>
-      </x:c>
       <x:c r="AF30" s="5" t="n">
-        <x:v>8235500</x:v>
+        <x:v>8823750</x:v>
       </x:c>
       <x:c r="AG30" s="5" t="n">
-        <x:v>8235500</x:v>
+        <x:v>8823750</x:v>
       </x:c>
       <x:c r="AH30" s="5" t="n">
-        <x:v>8235500</x:v>
+        <x:v>8823750</x:v>
       </x:c>
       <x:c r="AI30" s="5" t="n">
-        <x:v>8235500</x:v>
+        <x:v>8823750</x:v>
       </x:c>
       <x:c r="AJ30" s="5" t="n">
-        <x:v>8235500</x:v>
+        <x:v>8823750</x:v>
       </x:c>
       <x:c r="AK30" s="5" t="n">
-        <x:v>8235500</x:v>
+        <x:v>8823750</x:v>
       </x:c>
       <x:c r="AL30" s="5" t="n">
-        <x:v>8235500</x:v>
+        <x:v>8823750</x:v>
       </x:c>
       <x:c r="AM30" s="5" t="n">
-        <x:v>8235500</x:v>
+        <x:v>8823750</x:v>
       </x:c>
       <x:c r="AN30" s="5" t="n">
         <x:v>8823750</x:v>
@@ -6910,142 +6910,142 @@
         <x:v>8823750</x:v>
       </x:c>
       <x:c r="BG30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>8235500</x:v>
       </x:c>
       <x:c r="BH30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>8235500</x:v>
       </x:c>
       <x:c r="BI30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>8235500</x:v>
       </x:c>
       <x:c r="BJ30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>8235500</x:v>
       </x:c>
       <x:c r="BK30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>10000250</x:v>
       </x:c>
       <x:c r="BL30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>10000250</x:v>
       </x:c>
       <x:c r="BM30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>10000250</x:v>
       </x:c>
       <x:c r="BN30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>8235500</x:v>
       </x:c>
       <x:c r="BO30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>8235500</x:v>
       </x:c>
       <x:c r="BP30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>8235500</x:v>
       </x:c>
       <x:c r="BQ30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>8235500</x:v>
       </x:c>
       <x:c r="BR30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>10000250</x:v>
       </x:c>
       <x:c r="BS30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>8235500</x:v>
       </x:c>
       <x:c r="BT30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>8235500</x:v>
       </x:c>
       <x:c r="BU30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>8235500</x:v>
       </x:c>
       <x:c r="BV30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>8235500</x:v>
       </x:c>
       <x:c r="BW30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>8235500</x:v>
       </x:c>
       <x:c r="BX30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>8235500</x:v>
       </x:c>
       <x:c r="BY30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>8235500</x:v>
       </x:c>
       <x:c r="BZ30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>8235500</x:v>
       </x:c>
       <x:c r="CA30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>8235500</x:v>
       </x:c>
       <x:c r="CB30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>8235500</x:v>
       </x:c>
       <x:c r="CC30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>8235500</x:v>
       </x:c>
       <x:c r="CD30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>8235500</x:v>
       </x:c>
       <x:c r="CE30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>8235500</x:v>
       </x:c>
       <x:c r="CF30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>8235500</x:v>
       </x:c>
       <x:c r="CG30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>8235500</x:v>
       </x:c>
       <x:c r="CH30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>8235500</x:v>
       </x:c>
       <x:c r="CI30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>8235500</x:v>
       </x:c>
       <x:c r="CJ30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>8235500</x:v>
       </x:c>
       <x:c r="CK30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>7059000</x:v>
       </x:c>
       <x:c r="CL30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>7059000</x:v>
       </x:c>
       <x:c r="CM30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>7059000</x:v>
       </x:c>
       <x:c r="CN30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>7059000</x:v>
       </x:c>
       <x:c r="CO30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>7059000</x:v>
       </x:c>
       <x:c r="CP30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>7059000</x:v>
       </x:c>
       <x:c r="CQ30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>7059000</x:v>
       </x:c>
       <x:c r="CR30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>7059000</x:v>
       </x:c>
       <x:c r="CS30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>7059000</x:v>
       </x:c>
       <x:c r="CT30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>7059000</x:v>
       </x:c>
       <x:c r="CU30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>7059000</x:v>
       </x:c>
       <x:c r="CV30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>7059000</x:v>
       </x:c>
       <x:c r="CW30" s="5" t="n">
-        <x:v>8823750</x:v>
+        <x:v>7059000</x:v>
       </x:c>
       <x:c r="CX30" s="5" t="n">
-        <x:v>8235500</x:v>
+        <x:v>7059000</x:v>
       </x:c>
       <x:c r="CY30" s="5" t="n">
-        <x:v>8235500</x:v>
+        <x:v>7059000</x:v>
       </x:c>
       <x:c r="CZ30" s="5" t="n">
-        <x:v>8235500</x:v>
+        <x:v>7059000</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:104">
@@ -7055,68 +7055,68 @@
       <x:c r="C32" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D32" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E32" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F32" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G32" s="3" t="s">
-        <x:v>3</x:v>
+      <x:c r="D32" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E32" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F32" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G32" s="3" t="n">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H32" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I32" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="J32" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K32" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L32" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="M32" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="N32" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="O32" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="P32" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I32" s="3" t="n">
+      <x:c r="Q32" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J32" s="3" t="n">
+      <x:c r="R32" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S32" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T32" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U32" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="K32" s="3" t="n">
+      <x:c r="V32" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="L32" s="3" t="n">
+      <x:c r="W32" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="M32" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N32" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O32" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="P32" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="Q32" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="R32" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="S32" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="T32" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="U32" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="V32" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W32" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="X32" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Y32" s="3" t="n">
         <x:v>1</x:v>
@@ -7134,49 +7134,49 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="AD32" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE32" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="AF32" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="AG32" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="AH32" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="AI32" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AE32" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AF32" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AG32" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AH32" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI32" s="3" t="n">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AJ32" s="3" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AK32" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="AL32" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="AM32" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="AN32" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="AO32" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="AP32" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="AQ32" s="3" t="s">
-        <x:v>3</x:v>
+      <x:c r="AK32" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL32" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM32" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AN32" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AO32" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AP32" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AQ32" s="3" t="n">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AR32" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AS32" s="3" t="n">
         <x:v>0</x:v>
@@ -7185,7 +7185,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AU32" s="3" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AV32" s="3" t="n">
         <x:v>1</x:v>
@@ -7199,14 +7199,14 @@
       <x:c r="AY32" s="3" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AZ32" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BA32" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BB32" s="3" t="s">
-        <x:v>3</x:v>
+      <x:c r="AZ32" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA32" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB32" s="3" t="n">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BC32" s="3" t="s">
         <x:v>3</x:v>
@@ -7214,110 +7214,110 @@
       <x:c r="BD32" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="BE32" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BF32" s="3" t="s">
-        <x:v>3</x:v>
+      <x:c r="BE32" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF32" s="3" t="n">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BG32" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH32" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI32" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ32" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK32" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL32" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM32" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN32" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO32" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP32" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ32" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BR32" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS32" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BT32" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="BH32" s="3" t="n">
+      <x:c r="BU32" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="BI32" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BJ32" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BK32" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BL32" s="3" t="n">
+      <x:c r="BV32" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="BW32" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="BX32" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="BY32" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="BZ32" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CA32" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CB32" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CC32" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CD32" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CE32" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CF32" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CG32" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CH32" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CI32" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CJ32" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CK32" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="BM32" s="3" t="n">
+      <x:c r="CL32" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="BN32" s="3" t="n">
+      <x:c r="CM32" s="3" t="n">
         <x:v>0</x:v>
-      </x:c>
-      <x:c r="BO32" s="3" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="BP32" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BQ32" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BR32" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BS32" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BT32" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BU32" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BV32" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BW32" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BX32" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BY32" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BZ32" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="CA32" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="CB32" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="CC32" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="CD32" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="CE32" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="CF32" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="CG32" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="CH32" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="CI32" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="CJ32" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="CK32" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="CL32" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="CM32" s="3" t="n">
-        <x:v>1</x:v>
       </x:c>
       <x:c r="CN32" s="3" t="n">
         <x:v>1</x:v>
@@ -7370,112 +7370,112 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D33" s="5" t="n">
-        <x:v>8667750</x:v>
+        <x:v>11144250</x:v>
       </x:c>
       <x:c r="E33" s="5" t="n">
-        <x:v>7429500</x:v>
+        <x:v>11144250</x:v>
       </x:c>
       <x:c r="F33" s="5" t="n">
-        <x:v>8048625</x:v>
+        <x:v>11144250</x:v>
       </x:c>
       <x:c r="G33" s="5" t="n">
-        <x:v>8667750</x:v>
+        <x:v>11144250</x:v>
       </x:c>
       <x:c r="H33" s="5" t="n">
-        <x:v>8667750</x:v>
+        <x:v>11144250</x:v>
       </x:c>
       <x:c r="I33" s="5" t="n">
-        <x:v>7429500</x:v>
+        <x:v>11144250</x:v>
       </x:c>
       <x:c r="J33" s="5" t="n">
-        <x:v>8667750</x:v>
+        <x:v>9286875</x:v>
       </x:c>
       <x:c r="K33" s="5" t="n">
-        <x:v>8667750</x:v>
+        <x:v>9286875</x:v>
       </x:c>
       <x:c r="L33" s="5" t="n">
-        <x:v>8667750</x:v>
+        <x:v>9286875</x:v>
       </x:c>
       <x:c r="M33" s="5" t="n">
-        <x:v>8667750</x:v>
+        <x:v>9286875</x:v>
       </x:c>
       <x:c r="N33" s="5" t="n">
-        <x:v>8667750</x:v>
+        <x:v>10525125</x:v>
       </x:c>
       <x:c r="O33" s="5" t="n">
-        <x:v>8667750</x:v>
+        <x:v>9286875</x:v>
       </x:c>
       <x:c r="P33" s="5" t="n">
-        <x:v>8667750</x:v>
+        <x:v>9286875</x:v>
       </x:c>
       <x:c r="Q33" s="5" t="n">
-        <x:v>8667750</x:v>
+        <x:v>9286875</x:v>
       </x:c>
       <x:c r="R33" s="5" t="n">
-        <x:v>8667750</x:v>
+        <x:v>9286875</x:v>
       </x:c>
       <x:c r="S33" s="5" t="n">
-        <x:v>8667750</x:v>
+        <x:v>9286875</x:v>
       </x:c>
       <x:c r="T33" s="5" t="n">
-        <x:v>8667750</x:v>
+        <x:v>9286875</x:v>
       </x:c>
       <x:c r="U33" s="5" t="n">
-        <x:v>8667750</x:v>
+        <x:v>10525125</x:v>
       </x:c>
       <x:c r="V33" s="5" t="n">
-        <x:v>8667750</x:v>
+        <x:v>9286875</x:v>
       </x:c>
       <x:c r="W33" s="5" t="n">
-        <x:v>8667750</x:v>
+        <x:v>9286875</x:v>
       </x:c>
       <x:c r="X33" s="5" t="n">
         <x:v>9286875</x:v>
       </x:c>
       <x:c r="Y33" s="5" t="n">
-        <x:v>8667750</x:v>
+        <x:v>9286875</x:v>
       </x:c>
       <x:c r="Z33" s="5" t="n">
-        <x:v>8667750</x:v>
+        <x:v>9286875</x:v>
       </x:c>
       <x:c r="AA33" s="5" t="n">
-        <x:v>8667750</x:v>
+        <x:v>9286875</x:v>
       </x:c>
       <x:c r="AB33" s="5" t="n">
-        <x:v>8667750</x:v>
+        <x:v>9286875</x:v>
       </x:c>
       <x:c r="AC33" s="5" t="n">
         <x:v>9286875</x:v>
       </x:c>
       <x:c r="AD33" s="5" t="n">
+        <x:v>10525125</x:v>
+      </x:c>
+      <x:c r="AE33" s="5" t="n">
         <x:v>9286875</x:v>
       </x:c>
-      <x:c r="AE33" s="5" t="n">
-        <x:v>8667750</x:v>
-      </x:c>
       <x:c r="AF33" s="5" t="n">
-        <x:v>8667750</x:v>
+        <x:v>9286875</x:v>
       </x:c>
       <x:c r="AG33" s="5" t="n">
-        <x:v>8667750</x:v>
+        <x:v>9286875</x:v>
       </x:c>
       <x:c r="AH33" s="5" t="n">
-        <x:v>8667750</x:v>
+        <x:v>9286875</x:v>
       </x:c>
       <x:c r="AI33" s="5" t="n">
-        <x:v>8667750</x:v>
+        <x:v>9286875</x:v>
       </x:c>
       <x:c r="AJ33" s="5" t="n">
-        <x:v>8667750</x:v>
+        <x:v>9286875</x:v>
       </x:c>
       <x:c r="AK33" s="5" t="n">
-        <x:v>8667750</x:v>
+        <x:v>9286875</x:v>
       </x:c>
       <x:c r="AL33" s="5" t="n">
-        <x:v>8667750</x:v>
+        <x:v>9286875</x:v>
       </x:c>
       <x:c r="AM33" s="5" t="n">
-        <x:v>8667750</x:v>
+        <x:v>9286875</x:v>
       </x:c>
       <x:c r="AN33" s="5" t="n">
         <x:v>9286875</x:v>
@@ -7535,142 +7535,142 @@
         <x:v>9286875</x:v>
       </x:c>
       <x:c r="BG33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>8667750</x:v>
       </x:c>
       <x:c r="BH33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>8667750</x:v>
       </x:c>
       <x:c r="BI33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>8667750</x:v>
       </x:c>
       <x:c r="BJ33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>8667750</x:v>
       </x:c>
       <x:c r="BK33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>10525125</x:v>
       </x:c>
       <x:c r="BL33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>10525125</x:v>
       </x:c>
       <x:c r="BM33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>10525125</x:v>
       </x:c>
       <x:c r="BN33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>8667750</x:v>
       </x:c>
       <x:c r="BO33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>8667750</x:v>
       </x:c>
       <x:c r="BP33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>8667750</x:v>
       </x:c>
       <x:c r="BQ33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>8667750</x:v>
       </x:c>
       <x:c r="BR33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>10525125</x:v>
       </x:c>
       <x:c r="BS33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>8667750</x:v>
       </x:c>
       <x:c r="BT33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>8667750</x:v>
       </x:c>
       <x:c r="BU33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>8667750</x:v>
       </x:c>
       <x:c r="BV33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>8667750</x:v>
       </x:c>
       <x:c r="BW33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>8667750</x:v>
       </x:c>
       <x:c r="BX33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>8667750</x:v>
       </x:c>
       <x:c r="BY33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>8667750</x:v>
       </x:c>
       <x:c r="BZ33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>8667750</x:v>
       </x:c>
       <x:c r="CA33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>8667750</x:v>
       </x:c>
       <x:c r="CB33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>8667750</x:v>
       </x:c>
       <x:c r="CC33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>8667750</x:v>
       </x:c>
       <x:c r="CD33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>8667750</x:v>
       </x:c>
       <x:c r="CE33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>8667750</x:v>
       </x:c>
       <x:c r="CF33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>8667750</x:v>
       </x:c>
       <x:c r="CG33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>8667750</x:v>
       </x:c>
       <x:c r="CH33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>8667750</x:v>
       </x:c>
       <x:c r="CI33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>8667750</x:v>
       </x:c>
       <x:c r="CJ33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>8667750</x:v>
       </x:c>
       <x:c r="CK33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>7429500</x:v>
       </x:c>
       <x:c r="CL33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>7429500</x:v>
       </x:c>
       <x:c r="CM33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>7429500</x:v>
       </x:c>
       <x:c r="CN33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>7429500</x:v>
       </x:c>
       <x:c r="CO33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>7429500</x:v>
       </x:c>
       <x:c r="CP33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>7429500</x:v>
       </x:c>
       <x:c r="CQ33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>7429500</x:v>
       </x:c>
       <x:c r="CR33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>7429500</x:v>
       </x:c>
       <x:c r="CS33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>7429500</x:v>
       </x:c>
       <x:c r="CT33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>7429500</x:v>
       </x:c>
       <x:c r="CU33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>7429500</x:v>
       </x:c>
       <x:c r="CV33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>7429500</x:v>
       </x:c>
       <x:c r="CW33" s="5" t="n">
-        <x:v>9286875</x:v>
+        <x:v>7429500</x:v>
       </x:c>
       <x:c r="CX33" s="5" t="n">
-        <x:v>8667750</x:v>
+        <x:v>7429500</x:v>
       </x:c>
       <x:c r="CY33" s="5" t="n">
-        <x:v>8667750</x:v>
+        <x:v>7429500</x:v>
       </x:c>
       <x:c r="CZ33" s="5" t="n">
-        <x:v>8667750</x:v>
+        <x:v>7429500</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:104">
@@ -7710,17 +7710,17 @@
       <x:c r="M35" s="3" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="N35" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="O35" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="P35" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="Q35" s="3" t="s">
-        <x:v>3</x:v>
+      <x:c r="N35" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O35" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P35" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q35" s="3" t="n">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R35" s="3" t="n">
         <x:v>1</x:v>
@@ -7833,14 +7833,14 @@
       <x:c r="BB35" s="3" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BC35" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BD35" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BE35" s="3" t="s">
-        <x:v>3</x:v>
+      <x:c r="BC35" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD35" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE35" s="3" t="n">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BF35" s="3" t="n">
         <x:v>1</x:v>
@@ -7995,112 +7995,112 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D36" s="5" t="n">
-        <x:v>10965500</x:v>
+        <x:v>14098500</x:v>
       </x:c>
       <x:c r="E36" s="5" t="n">
-        <x:v>9399000</x:v>
+        <x:v>14098500</x:v>
       </x:c>
       <x:c r="F36" s="5" t="n">
-        <x:v>10182250</x:v>
+        <x:v>14098500</x:v>
       </x:c>
       <x:c r="G36" s="5" t="n">
-        <x:v>10965500</x:v>
+        <x:v>14098500</x:v>
       </x:c>
       <x:c r="H36" s="5" t="n">
-        <x:v>10965500</x:v>
+        <x:v>14098500</x:v>
       </x:c>
       <x:c r="I36" s="5" t="n">
-        <x:v>9399000</x:v>
+        <x:v>14098500</x:v>
       </x:c>
       <x:c r="J36" s="5" t="n">
-        <x:v>10965500</x:v>
+        <x:v>11748750</x:v>
       </x:c>
       <x:c r="K36" s="5" t="n">
-        <x:v>10965500</x:v>
+        <x:v>11748750</x:v>
       </x:c>
       <x:c r="L36" s="5" t="n">
-        <x:v>10965500</x:v>
+        <x:v>11748750</x:v>
       </x:c>
       <x:c r="M36" s="5" t="n">
-        <x:v>10965500</x:v>
+        <x:v>11748750</x:v>
       </x:c>
       <x:c r="N36" s="5" t="n">
-        <x:v>10965500</x:v>
+        <x:v>13315250</x:v>
       </x:c>
       <x:c r="O36" s="5" t="n">
-        <x:v>10965500</x:v>
+        <x:v>11748750</x:v>
       </x:c>
       <x:c r="P36" s="5" t="n">
-        <x:v>10965500</x:v>
+        <x:v>11748750</x:v>
       </x:c>
       <x:c r="Q36" s="5" t="n">
-        <x:v>10965500</x:v>
+        <x:v>11748750</x:v>
       </x:c>
       <x:c r="R36" s="5" t="n">
-        <x:v>10965500</x:v>
+        <x:v>11748750</x:v>
       </x:c>
       <x:c r="S36" s="5" t="n">
-        <x:v>10965500</x:v>
+        <x:v>11748750</x:v>
       </x:c>
       <x:c r="T36" s="5" t="n">
-        <x:v>10965500</x:v>
+        <x:v>11748750</x:v>
       </x:c>
       <x:c r="U36" s="5" t="n">
-        <x:v>10965500</x:v>
+        <x:v>13315250</x:v>
       </x:c>
       <x:c r="V36" s="5" t="n">
-        <x:v>10965500</x:v>
+        <x:v>11748750</x:v>
       </x:c>
       <x:c r="W36" s="5" t="n">
-        <x:v>10965500</x:v>
+        <x:v>11748750</x:v>
       </x:c>
       <x:c r="X36" s="5" t="n">
         <x:v>11748750</x:v>
       </x:c>
       <x:c r="Y36" s="5" t="n">
-        <x:v>10965500</x:v>
+        <x:v>11748750</x:v>
       </x:c>
       <x:c r="Z36" s="5" t="n">
-        <x:v>10965500</x:v>
+        <x:v>11748750</x:v>
       </x:c>
       <x:c r="AA36" s="5" t="n">
-        <x:v>10965500</x:v>
+        <x:v>11748750</x:v>
       </x:c>
       <x:c r="AB36" s="5" t="n">
-        <x:v>10965500</x:v>
+        <x:v>11748750</x:v>
       </x:c>
       <x:c r="AC36" s="5" t="n">
         <x:v>11748750</x:v>
       </x:c>
       <x:c r="AD36" s="5" t="n">
+        <x:v>13315250</x:v>
+      </x:c>
+      <x:c r="AE36" s="5" t="n">
         <x:v>11748750</x:v>
       </x:c>
-      <x:c r="AE36" s="5" t="n">
-        <x:v>10965500</x:v>
-      </x:c>
       <x:c r="AF36" s="5" t="n">
-        <x:v>10965500</x:v>
+        <x:v>11748750</x:v>
       </x:c>
       <x:c r="AG36" s="5" t="n">
-        <x:v>10965500</x:v>
+        <x:v>11748750</x:v>
       </x:c>
       <x:c r="AH36" s="5" t="n">
-        <x:v>10965500</x:v>
+        <x:v>11748750</x:v>
       </x:c>
       <x:c r="AI36" s="5" t="n">
-        <x:v>10965500</x:v>
+        <x:v>11748750</x:v>
       </x:c>
       <x:c r="AJ36" s="5" t="n">
-        <x:v>10965500</x:v>
+        <x:v>11748750</x:v>
       </x:c>
       <x:c r="AK36" s="5" t="n">
-        <x:v>10965500</x:v>
+        <x:v>11748750</x:v>
       </x:c>
       <x:c r="AL36" s="5" t="n">
-        <x:v>10965500</x:v>
+        <x:v>11748750</x:v>
       </x:c>
       <x:c r="AM36" s="5" t="n">
-        <x:v>10965500</x:v>
+        <x:v>11748750</x:v>
       </x:c>
       <x:c r="AN36" s="5" t="n">
         <x:v>11748750</x:v>
@@ -8160,142 +8160,142 @@
         <x:v>11748750</x:v>
       </x:c>
       <x:c r="BG36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>10965500</x:v>
       </x:c>
       <x:c r="BH36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>10965500</x:v>
       </x:c>
       <x:c r="BI36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>10965500</x:v>
       </x:c>
       <x:c r="BJ36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>10965500</x:v>
       </x:c>
       <x:c r="BK36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>13315250</x:v>
       </x:c>
       <x:c r="BL36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>13315250</x:v>
       </x:c>
       <x:c r="BM36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>13315250</x:v>
       </x:c>
       <x:c r="BN36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>10965500</x:v>
       </x:c>
       <x:c r="BO36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>10965500</x:v>
       </x:c>
       <x:c r="BP36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>10965500</x:v>
       </x:c>
       <x:c r="BQ36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>10965500</x:v>
       </x:c>
       <x:c r="BR36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>13315250</x:v>
       </x:c>
       <x:c r="BS36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>10965500</x:v>
       </x:c>
       <x:c r="BT36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>10965500</x:v>
       </x:c>
       <x:c r="BU36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>10965500</x:v>
       </x:c>
       <x:c r="BV36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>10965500</x:v>
       </x:c>
       <x:c r="BW36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>10965500</x:v>
       </x:c>
       <x:c r="BX36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>10965500</x:v>
       </x:c>
       <x:c r="BY36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>10965500</x:v>
       </x:c>
       <x:c r="BZ36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>10965500</x:v>
       </x:c>
       <x:c r="CA36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>10965500</x:v>
       </x:c>
       <x:c r="CB36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>10965500</x:v>
       </x:c>
       <x:c r="CC36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>10965500</x:v>
       </x:c>
       <x:c r="CD36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>10965500</x:v>
       </x:c>
       <x:c r="CE36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>10965500</x:v>
       </x:c>
       <x:c r="CF36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>10965500</x:v>
       </x:c>
       <x:c r="CG36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>10965500</x:v>
       </x:c>
       <x:c r="CH36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>10965500</x:v>
       </x:c>
       <x:c r="CI36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>10965500</x:v>
       </x:c>
       <x:c r="CJ36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>10965500</x:v>
       </x:c>
       <x:c r="CK36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>9399000</x:v>
       </x:c>
       <x:c r="CL36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>9399000</x:v>
       </x:c>
       <x:c r="CM36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>9399000</x:v>
       </x:c>
       <x:c r="CN36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>9399000</x:v>
       </x:c>
       <x:c r="CO36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>9399000</x:v>
       </x:c>
       <x:c r="CP36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>9399000</x:v>
       </x:c>
       <x:c r="CQ36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>9399000</x:v>
       </x:c>
       <x:c r="CR36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>9399000</x:v>
       </x:c>
       <x:c r="CS36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>9399000</x:v>
       </x:c>
       <x:c r="CT36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>9399000</x:v>
       </x:c>
       <x:c r="CU36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>9399000</x:v>
       </x:c>
       <x:c r="CV36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>9399000</x:v>
       </x:c>
       <x:c r="CW36" s="5" t="n">
-        <x:v>11748750</x:v>
+        <x:v>9399000</x:v>
       </x:c>
       <x:c r="CX36" s="5" t="n">
-        <x:v>10965500</x:v>
+        <x:v>9399000</x:v>
       </x:c>
       <x:c r="CY36" s="5" t="n">
-        <x:v>10965500</x:v>
+        <x:v>9399000</x:v>
       </x:c>
       <x:c r="CZ36" s="5" t="n">
-        <x:v>10965500</x:v>
+        <x:v>9399000</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:104">
@@ -8320,44 +8320,44 @@
       <x:c r="H38" s="3" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="I38" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J38" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K38" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L38" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M38" s="3" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N38" s="3" t="n">
-        <x:v>1</x:v>
+      <x:c r="I38" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="J38" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K38" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L38" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="M38" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="N38" s="3" t="s">
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O38" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="P38" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="Q38" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="R38" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="S38" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="T38" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="U38" s="3" t="s">
-        <x:v>3</x:v>
+      <x:c r="P38" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q38" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R38" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S38" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T38" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U38" s="3" t="n">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="V38" s="3" t="n">
         <x:v>1</x:v>
@@ -8396,16 +8396,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="AH38" s="3" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AI38" s="3" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AJ38" s="3" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AK38" s="3" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AL38" s="3" t="n">
         <x:v>1</x:v>
@@ -8419,17 +8419,17 @@
       <x:c r="AO38" s="3" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AP38" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="AQ38" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="AR38" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="AS38" s="3" t="s">
-        <x:v>3</x:v>
+      <x:c r="AP38" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ38" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR38" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS38" s="3" t="n">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AT38" s="3" t="n">
         <x:v>1</x:v>
@@ -8449,26 +8449,26 @@
       <x:c r="AY38" s="3" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AZ38" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BA38" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BB38" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BC38" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BD38" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BE38" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="BF38" s="3" t="s">
-        <x:v>3</x:v>
+      <x:c r="AZ38" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA38" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB38" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC38" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD38" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE38" s="3" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF38" s="3" t="n">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BG38" s="3" t="n">
         <x:v>1</x:v>
@@ -8480,13 +8480,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="BJ38" s="3" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BK38" s="3" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BL38" s="3" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BM38" s="3" t="n">
         <x:v>1</x:v>
@@ -8620,112 +8620,112 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D39" s="5" t="n">
-        <x:v>24069500</x:v>
+        <x:v>30946500</x:v>
       </x:c>
       <x:c r="E39" s="5" t="n">
-        <x:v>20631000</x:v>
+        <x:v>30946500</x:v>
       </x:c>
       <x:c r="F39" s="5" t="n">
-        <x:v>22350250</x:v>
+        <x:v>30946500</x:v>
       </x:c>
       <x:c r="G39" s="5" t="n">
-        <x:v>24069500</x:v>
+        <x:v>30946500</x:v>
       </x:c>
       <x:c r="H39" s="5" t="n">
-        <x:v>24069500</x:v>
+        <x:v>30946500</x:v>
       </x:c>
       <x:c r="I39" s="5" t="n">
-        <x:v>20631000</x:v>
+        <x:v>30946500</x:v>
       </x:c>
       <x:c r="J39" s="5" t="n">
-        <x:v>24069500</x:v>
+        <x:v>25788750</x:v>
       </x:c>
       <x:c r="K39" s="5" t="n">
-        <x:v>24069500</x:v>
+        <x:v>25788750</x:v>
       </x:c>
       <x:c r="L39" s="5" t="n">
-        <x:v>24069500</x:v>
+        <x:v>25788750</x:v>
       </x:c>
       <x:c r="M39" s="5" t="n">
-        <x:v>24069500</x:v>
+        <x:v>25788750</x:v>
       </x:c>
       <x:c r="N39" s="5" t="n">
-        <x:v>24069500</x:v>
+        <x:v>29227250</x:v>
       </x:c>
       <x:c r="O39" s="5" t="n">
-        <x:v>24069500</x:v>
+        <x:v>25788750</x:v>
       </x:c>
       <x:c r="P39" s="5" t="n">
-        <x:v>24069500</x:v>
+        <x:v>25788750</x:v>
       </x:c>
       <x:c r="Q39" s="5" t="n">
-        <x:v>24069500</x:v>
+        <x:v>25788750</x:v>
       </x:c>
       <x:c r="R39" s="5" t="n">
-        <x:v>24069500</x:v>
+        <x:v>25788750</x:v>
       </x:c>
       <x:c r="S39" s="5" t="n">
-        <x:v>24069500</x:v>
+        <x:v>25788750</x:v>
       </x:c>
       <x:c r="T39" s="5" t="n">
-        <x:v>24069500</x:v>
+        <x:v>25788750</x:v>
       </x:c>
       <x:c r="U39" s="5" t="n">
-        <x:v>24069500</x:v>
+        <x:v>29227250</x:v>
       </x:c>
       <x:c r="V39" s="5" t="n">
-        <x:v>24069500</x:v>
+        <x:v>25788750</x:v>
       </x:c>
       <x:c r="W39" s="5" t="n">
-        <x:v>24069500</x:v>
+        <x:v>25788750</x:v>
       </x:c>
       <x:c r="X39" s="5" t="n">
         <x:v>25788750</x:v>
       </x:c>
       <x:c r="Y39" s="5" t="n">
-        <x:v>24069500</x:v>
+        <x:v>25788750</x:v>
       </x:c>
       <x:c r="Z39" s="5" t="n">
-        <x:v>24069500</x:v>
+        <x:v>25788750</x:v>
       </x:c>
       <x:c r="AA39" s="5" t="n">
-        <x:v>24069500</x:v>
+        <x:v>25788750</x:v>
       </x:c>
       <x:c r="AB39" s="5" t="n">
-        <x:v>24069500</x:v>
+        <x:v>25788750</x:v>
       </x:c>
       <x:c r="AC39" s="5" t="n">
         <x:v>25788750</x:v>
       </x:c>
       <x:c r="AD39" s="5" t="n">
+        <x:v>29227250</x:v>
+      </x:c>
+      <x:c r="AE39" s="5" t="n">
         <x:v>25788750</x:v>
       </x:c>
-      <x:c r="AE39" s="5" t="n">
-        <x:v>24069500</x:v>
-      </x:c>
       <x:c r="AF39" s="5" t="n">
-        <x:v>24069500</x:v>
+        <x:v>25788750</x:v>
       </x:c>
       <x:c r="AG39" s="5" t="n">
-        <x:v>24069500</x:v>
+        <x:v>25788750</x:v>
       </x:c>
       <x:c r="AH39" s="5" t="n">
-        <x:v>24069500</x:v>
+        <x:v>25788750</x:v>
       </x:c>
       <x:c r="AI39" s="5" t="n">
-        <x:v>24069500</x:v>
+        <x:v>25788750</x:v>
       </x:c>
       <x:c r="AJ39" s="5" t="n">
-        <x:v>24069500</x:v>
+        <x:v>25788750</x:v>
       </x:c>
       <x:c r="AK39" s="5" t="n">
-        <x:v>24069500</x:v>
+        <x:v>25788750</x:v>
       </x:c>
       <x:c r="AL39" s="5" t="n">
-        <x:v>24069500</x:v>
+        <x:v>25788750</x:v>
       </x:c>
       <x:c r="AM39" s="5" t="n">
-        <x:v>24069500</x:v>
+        <x:v>25788750</x:v>
       </x:c>
       <x:c r="AN39" s="5" t="n">
         <x:v>25788750</x:v>
@@ -8785,142 +8785,142 @@
         <x:v>25788750</x:v>
       </x:c>
       <x:c r="BG39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>24069500</x:v>
       </x:c>
       <x:c r="BH39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>24069500</x:v>
       </x:c>
       <x:c r="BI39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>24069500</x:v>
       </x:c>
       <x:c r="BJ39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>24069500</x:v>
       </x:c>
       <x:c r="BK39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>29227250</x:v>
       </x:c>
       <x:c r="BL39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>29227250</x:v>
       </x:c>
       <x:c r="BM39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>29227250</x:v>
       </x:c>
       <x:c r="BN39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>24069500</x:v>
       </x:c>
       <x:c r="BO39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>24069500</x:v>
       </x:c>
       <x:c r="BP39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>24069500</x:v>
       </x:c>
       <x:c r="BQ39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>24069500</x:v>
       </x:c>
       <x:c r="BR39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>29227250</x:v>
       </x:c>
       <x:c r="BS39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>24069500</x:v>
       </x:c>
       <x:c r="BT39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>24069500</x:v>
       </x:c>
       <x:c r="BU39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>24069500</x:v>
       </x:c>
       <x:c r="BV39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>24069500</x:v>
       </x:c>
       <x:c r="BW39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>24069500</x:v>
       </x:c>
       <x:c r="BX39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>24069500</x:v>
       </x:c>
       <x:c r="BY39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>24069500</x:v>
       </x:c>
       <x:c r="BZ39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>24069500</x:v>
       </x:c>
       <x:c r="CA39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>24069500</x:v>
       </x:c>
       <x:c r="CB39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>24069500</x:v>
       </x:c>
       <x:c r="CC39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>24069500</x:v>
       </x:c>
       <x:c r="CD39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>24069500</x:v>
       </x:c>
       <x:c r="CE39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>24069500</x:v>
       </x:c>
       <x:c r="CF39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>24069500</x:v>
       </x:c>
       <x:c r="CG39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>24069500</x:v>
       </x:c>
       <x:c r="CH39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>24069500</x:v>
       </x:c>
       <x:c r="CI39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>24069500</x:v>
       </x:c>
       <x:c r="CJ39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>24069500</x:v>
       </x:c>
       <x:c r="CK39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>20631000</x:v>
       </x:c>
       <x:c r="CL39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>20631000</x:v>
       </x:c>
       <x:c r="CM39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>20631000</x:v>
       </x:c>
       <x:c r="CN39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>20631000</x:v>
       </x:c>
       <x:c r="CO39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>20631000</x:v>
       </x:c>
       <x:c r="CP39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>20631000</x:v>
       </x:c>
       <x:c r="CQ39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>20631000</x:v>
       </x:c>
       <x:c r="CR39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>20631000</x:v>
       </x:c>
       <x:c r="CS39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>20631000</x:v>
       </x:c>
       <x:c r="CT39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>20631000</x:v>
       </x:c>
       <x:c r="CU39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>20631000</x:v>
       </x:c>
       <x:c r="CV39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>20631000</x:v>
       </x:c>
       <x:c r="CW39" s="5" t="n">
-        <x:v>25788750</x:v>
+        <x:v>20631000</x:v>
       </x:c>
       <x:c r="CX39" s="5" t="n">
-        <x:v>24069500</x:v>
+        <x:v>20631000</x:v>
       </x:c>
       <x:c r="CY39" s="5" t="n">
-        <x:v>24069500</x:v>
+        <x:v>20631000</x:v>
       </x:c>
       <x:c r="CZ39" s="5" t="n">
-        <x:v>24069500</x:v>
+        <x:v>20631000</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
